--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_11_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_11_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1749736.721261031</v>
+        <v>-1750490.898490528</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1296370.265119874</v>
+        <v>1296370.265119875</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>9.956053622142033</v>
       </c>
       <c r="R8" t="n">
-        <v>15.26809192273228</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>15.30273751513505</v>
       </c>
       <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>12.73205987707308</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.75721046822443</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="D10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>10.75721046822444</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>233.9456459132677</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>250.6031242145219</v>
+        <v>196.1505798285171</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>283.4782531316253</v>
+        <v>283.4782531316254</v>
       </c>
       <c r="H11" t="n">
-        <v>203.0552122059868</v>
+        <v>203.0552122059869</v>
       </c>
       <c r="I11" t="n">
-        <v>59.9788554479241</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.36200082252512</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>53.15224525681311</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>119.978627968035</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>238.4038548207291</v>
+        <v>238.4038548207292</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,25 +1449,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>41.38125313057583</v>
+        <v>41.38125313057586</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>16.11781970689887</v>
       </c>
       <c r="E12" t="n">
-        <v>26.31783459766103</v>
+        <v>26.31783459766106</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>13.741966535644</v>
       </c>
       <c r="G12" t="n">
-        <v>5.750225239536416</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>35.41423625823916</v>
+        <v>35.41423625823919</v>
       </c>
       <c r="T12" t="n">
-        <v>175.6327828784248</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U12" t="n">
-        <v>94.59663319258134</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V12" t="n">
         <v>101.4733412916854</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>147.9986762131868</v>
       </c>
       <c r="X12" t="n">
-        <v>74.44573934573756</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>74.35544991956448</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.50473432419739</v>
+        <v>48.50473432419741</v>
       </c>
       <c r="C13" t="n">
-        <v>35.91957524088792</v>
+        <v>35.91957524088795</v>
       </c>
       <c r="D13" t="n">
-        <v>17.28822716047245</v>
+        <v>17.28822716047247</v>
       </c>
       <c r="E13" t="n">
-        <v>15.10671678882926</v>
+        <v>15.10671678882929</v>
       </c>
       <c r="F13" t="n">
-        <v>14.09380216519133</v>
+        <v>14.09380216519136</v>
       </c>
       <c r="G13" t="n">
-        <v>36.4406894161061</v>
+        <v>36.44068941610613</v>
       </c>
       <c r="H13" t="n">
-        <v>28.91686197014273</v>
+        <v>28.91686197014275</v>
       </c>
       <c r="I13" t="n">
-        <v>17.41568514316424</v>
+        <v>17.41568514316426</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.93727240584204</v>
+        <v>35.93727240584207</v>
       </c>
       <c r="S13" t="n">
-        <v>88.80230208648118</v>
+        <v>88.80230208648121</v>
       </c>
       <c r="T13" t="n">
-        <v>95.66533702719623</v>
+        <v>95.66533702719626</v>
       </c>
       <c r="U13" t="n">
         <v>154.9796174577721</v>
@@ -1591,10 +1591,10 @@
         <v>155.1957524788511</v>
       </c>
       <c r="X13" t="n">
-        <v>94.38240953129724</v>
+        <v>94.38240953129727</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.25740749435488</v>
+        <v>87.25740749435491</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>251.4065958057407</v>
       </c>
       <c r="C14" t="n">
-        <v>233.9456459132676</v>
+        <v>122.0396803488414</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>250.6031242145219</v>
       </c>
       <c r="F14" t="n">
-        <v>275.5487998839715</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>14.43811055274027</v>
+        <v>283.4782531316254</v>
       </c>
       <c r="H14" t="n">
-        <v>203.0552122059868</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.97885544792416</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.36200082252512</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.59194205983395</v>
+        <v>89.59194205983401</v>
       </c>
       <c r="U14" t="n">
-        <v>119.978627968035</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>196.4250126123951</v>
       </c>
       <c r="W14" t="n">
-        <v>217.9137228596731</v>
+        <v>217.9137228596732</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>41.38125313057583</v>
+        <v>41.38125313057589</v>
       </c>
       <c r="D15" t="n">
-        <v>16.11781970689884</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>13.74196653564402</v>
       </c>
       <c r="G15" t="n">
-        <v>5.750225239536416</v>
+        <v>5.750225239536473</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.41423625823916</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T15" t="n">
-        <v>67.76513049237279</v>
+        <v>67.76513049237285</v>
       </c>
       <c r="U15" t="n">
-        <v>94.59663319258134</v>
+        <v>94.59663319258139</v>
       </c>
       <c r="V15" t="n">
         <v>101.4733412916854</v>
       </c>
       <c r="W15" t="n">
-        <v>228.2353896892316</v>
+        <v>169.6599227343745</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>74.44573934573762</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>74.35544991956451</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.50473432419739</v>
+        <v>48.50473432419744</v>
       </c>
       <c r="C16" t="n">
-        <v>35.91957524088792</v>
+        <v>35.91957524088798</v>
       </c>
       <c r="D16" t="n">
-        <v>17.28822716047245</v>
+        <v>17.2882271604725</v>
       </c>
       <c r="E16" t="n">
-        <v>15.10671678882926</v>
+        <v>15.10671678882932</v>
       </c>
       <c r="F16" t="n">
-        <v>14.09380216519133</v>
+        <v>14.09380216519139</v>
       </c>
       <c r="G16" t="n">
-        <v>36.4406894161061</v>
+        <v>36.44068941610616</v>
       </c>
       <c r="H16" t="n">
-        <v>28.91686197014273</v>
+        <v>28.91686197014278</v>
       </c>
       <c r="I16" t="n">
-        <v>17.41568514316424</v>
+        <v>17.41568514316429</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.93727240584204</v>
+        <v>35.9372724058421</v>
       </c>
       <c r="S16" t="n">
-        <v>88.80230208648118</v>
+        <v>88.80230208648123</v>
       </c>
       <c r="T16" t="n">
-        <v>95.66533702719623</v>
+        <v>95.66533702719629</v>
       </c>
       <c r="U16" t="n">
-        <v>154.9796174577721</v>
+        <v>154.9796174577722</v>
       </c>
       <c r="V16" t="n">
         <v>120.8103974660881</v>
@@ -1828,10 +1828,10 @@
         <v>155.1957524788511</v>
       </c>
       <c r="X16" t="n">
-        <v>94.38240953129724</v>
+        <v>94.3824095312973</v>
       </c>
       <c r="Y16" t="n">
-        <v>87.25740749435488</v>
+        <v>87.25740749435494</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>144.9409165143534</v>
+        <v>144.9409165143535</v>
       </c>
       <c r="C17" t="n">
-        <v>127.4799666218804</v>
+        <v>127.4799666218805</v>
       </c>
       <c r="D17" t="n">
-        <v>116.8901164715558</v>
+        <v>116.8901164715559</v>
       </c>
       <c r="E17" t="n">
-        <v>144.1374449231346</v>
+        <v>144.1374449231347</v>
       </c>
       <c r="F17" t="n">
-        <v>169.0831205925843</v>
+        <v>169.0831205925844</v>
       </c>
       <c r="G17" t="n">
-        <v>177.012573840238</v>
+        <v>177.0125738402381</v>
       </c>
       <c r="H17" t="n">
-        <v>96.58953291459957</v>
+        <v>96.58953291459966</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>13.51294867664774</v>
+        <v>13.51294867664782</v>
       </c>
       <c r="V17" t="n">
-        <v>89.95933332100773</v>
+        <v>89.95933332100782</v>
       </c>
       <c r="W17" t="n">
-        <v>111.4480435682858</v>
+        <v>111.4480435682859</v>
       </c>
       <c r="X17" t="n">
         <v>131.9381755293419</v>
       </c>
       <c r="Y17" t="n">
-        <v>148.4450135069264</v>
+        <v>148.4450135069265</v>
       </c>
     </row>
     <row r="18">
@@ -1929,13 +1929,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1974,16 +1974,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0923763501127</v>
+        <v>119.6009353390987</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9238790503212</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>148.2785018965179</v>
+        <v>13.90205801179252</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>34.64048808284114</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>48.51393816638484</v>
+        <v>48.51393816638492</v>
       </c>
       <c r="V19" t="n">
-        <v>14.34471817470083</v>
+        <v>14.34471817470092</v>
       </c>
       <c r="W19" t="n">
-        <v>228.7916092932364</v>
+        <v>48.73007318746392</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>144.9409165143534</v>
+        <v>144.9409165143535</v>
       </c>
       <c r="C20" t="n">
-        <v>127.4799666218804</v>
+        <v>127.4799666218805</v>
       </c>
       <c r="D20" t="n">
-        <v>116.8901164715558</v>
+        <v>116.8901164715559</v>
       </c>
       <c r="E20" t="n">
-        <v>144.1374449231346</v>
+        <v>144.1374449231347</v>
       </c>
       <c r="F20" t="n">
-        <v>169.0831205925843</v>
+        <v>169.0831205925844</v>
       </c>
       <c r="G20" t="n">
         <v>177.0125738402381</v>
       </c>
       <c r="H20" t="n">
-        <v>96.5895329145996</v>
+        <v>96.58953291459966</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>13.51294867664777</v>
+        <v>13.51294867664782</v>
       </c>
       <c r="V20" t="n">
-        <v>89.95933332100776</v>
+        <v>89.95933332100782</v>
       </c>
       <c r="W20" t="n">
         <v>111.4480435682859</v>
@@ -2147,7 +2147,7 @@
         <v>131.9381755293419</v>
       </c>
       <c r="Y20" t="n">
-        <v>148.4450135069264</v>
+        <v>148.4450135069265</v>
       </c>
     </row>
     <row r="21">
@@ -2163,19 +2163,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>78.98464450396574</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,19 +2205,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>185.418664937115</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2226,7 +2226,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2290,22 +2290,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>180.0615361057725</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>48.51393816638487</v>
+        <v>48.51393816638492</v>
       </c>
       <c r="V22" t="n">
-        <v>14.34471817470086</v>
+        <v>14.34471817470092</v>
       </c>
       <c r="W22" t="n">
-        <v>48.73007318746386</v>
+        <v>48.73007318746392</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>180.0615361057724</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.9409165143534</v>
+        <v>144.9409165143535</v>
       </c>
       <c r="C23" t="n">
-        <v>127.4799666218804</v>
+        <v>127.4799666218805</v>
       </c>
       <c r="D23" t="n">
-        <v>116.8901164715558</v>
+        <v>116.8901164715559</v>
       </c>
       <c r="E23" t="n">
-        <v>144.1374449231346</v>
+        <v>144.1374449231347</v>
       </c>
       <c r="F23" t="n">
-        <v>169.0831205925843</v>
+        <v>169.0831205925844</v>
       </c>
       <c r="G23" t="n">
         <v>177.0125738402381</v>
       </c>
       <c r="H23" t="n">
-        <v>96.5895329145996</v>
+        <v>96.58953291459966</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>13.51294867664777</v>
+        <v>13.51294867664782</v>
       </c>
       <c r="V23" t="n">
-        <v>89.95933332100776</v>
+        <v>89.95933332100782</v>
       </c>
       <c r="W23" t="n">
         <v>111.4480435682859</v>
@@ -2384,7 +2384,7 @@
         <v>131.9381755293419</v>
       </c>
       <c r="Y23" t="n">
-        <v>148.4450135069264</v>
+        <v>148.4450135069265</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>128.51836208335</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.82669494857385</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S24" t="n">
         <v>166.7414821159791</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>13.90205801179252</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.767935273846</v>
       </c>
       <c r="H25" t="n">
-        <v>112.5763934301506</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>67.48514267562186</v>
+        <v>12.29360083192642</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>48.51393816638487</v>
+        <v>48.51393816638492</v>
       </c>
       <c r="V25" t="n">
-        <v>14.34471817470086</v>
+        <v>14.34471817470092</v>
       </c>
       <c r="W25" t="n">
-        <v>48.73007318746386</v>
+        <v>48.73007318746392</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2640,13 +2640,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>149.9021608155758</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>81.10324426627116</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S27" t="n">
-        <v>16.4657465070099</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T27" t="n">
-        <v>48.81664074114354</v>
+        <v>48.81664074114353</v>
       </c>
       <c r="U27" t="n">
         <v>225.9238790503212</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>30.32224334281716</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>22.43276337934657</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>7.369344846431773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2922,16 +2922,16 @@
         <v>16.4657465070099</v>
       </c>
       <c r="T30" t="n">
-        <v>48.81664074114354</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U30" t="n">
-        <v>89.712938743271</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>101.4192475519504</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>228.4989818045956</v>
+        <v>228.4989818045957</v>
       </c>
       <c r="C32" t="n">
         <v>211.0380319121226</v>
       </c>
       <c r="D32" t="n">
-        <v>200.448181761798</v>
+        <v>200.4481817617981</v>
       </c>
       <c r="E32" t="n">
-        <v>227.6955102133768</v>
+        <v>227.6955102133769</v>
       </c>
       <c r="F32" t="n">
         <v>252.6411858828265</v>
@@ -3047,7 +3047,7 @@
         <v>180.1475982048418</v>
       </c>
       <c r="I32" t="n">
-        <v>37.07124144677908</v>
+        <v>37.07124144677911</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.4543868213801</v>
+        <v>43.45438682138013</v>
       </c>
       <c r="T32" t="n">
-        <v>66.68432805868895</v>
+        <v>66.68432805868898</v>
       </c>
       <c r="U32" t="n">
-        <v>97.07101396688998</v>
+        <v>97.07101396689001</v>
       </c>
       <c r="V32" t="n">
         <v>173.51739861125</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>160.2153957966964</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3120,10 +3120,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>12.50662225709414</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T33" t="n">
-        <v>44.85751649122778</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U33" t="n">
-        <v>164.669636207455</v>
+        <v>71.68901919143634</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>78.56572729054037</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>97.4601233020347</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25.59712032305237</v>
+        <v>25.59712032305239</v>
       </c>
       <c r="C34" t="n">
-        <v>13.0119612397429</v>
+        <v>13.01196123974293</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>13.53307541496108</v>
+        <v>13.53307541496111</v>
       </c>
       <c r="H34" t="n">
-        <v>6.009247968997707</v>
+        <v>6.009247968997736</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.02965840469703</v>
+        <v>13.02965840469705</v>
       </c>
       <c r="S34" t="n">
-        <v>65.89468808533616</v>
+        <v>65.89468808533618</v>
       </c>
       <c r="T34" t="n">
-        <v>72.75772302605121</v>
+        <v>72.75772302605124</v>
       </c>
       <c r="U34" t="n">
         <v>132.0720034566271</v>
       </c>
       <c r="V34" t="n">
-        <v>97.90278346494307</v>
+        <v>97.9027834649431</v>
       </c>
       <c r="W34" t="n">
         <v>132.2881384777061</v>
       </c>
       <c r="X34" t="n">
-        <v>71.47479553015222</v>
+        <v>71.47479553015225</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.34979349320986</v>
+        <v>64.34979349320989</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>179.7734255950847</v>
+        <v>179.7734255950848</v>
       </c>
       <c r="C35" t="n">
         <v>162.3124757026117</v>
       </c>
       <c r="D35" t="n">
-        <v>151.7226255522871</v>
+        <v>151.7226255522872</v>
       </c>
       <c r="E35" t="n">
-        <v>178.9699540038659</v>
+        <v>178.969954003866</v>
       </c>
       <c r="F35" t="n">
         <v>203.9156296733156</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>17.95877184917802</v>
+        <v>17.95877184917808</v>
       </c>
       <c r="U35" t="n">
-        <v>48.34545775737905</v>
+        <v>48.34545775737911</v>
       </c>
       <c r="V35" t="n">
-        <v>124.791842401739</v>
+        <v>124.7918424017391</v>
       </c>
       <c r="W35" t="n">
         <v>146.2805526490172</v>
@@ -3332,7 +3332,7 @@
         <v>166.7706846100732</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.2775225876577</v>
+        <v>183.2775225876578</v>
       </c>
     </row>
     <row r="36">
@@ -3351,16 +3351,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0774710972763</v>
+        <v>109.7371968372279</v>
       </c>
       <c r="H36" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>80.23671347604525</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>22.96346298192539</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V36" t="n">
-        <v>29.84017108102941</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>243.1058866027818</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>2.722279708908559</v>
       </c>
     </row>
     <row r="37">
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>17.16913187582523</v>
+        <v>17.16913187582528</v>
       </c>
       <c r="T37" t="n">
-        <v>24.03216681654028</v>
+        <v>24.03216681654034</v>
       </c>
       <c r="U37" t="n">
-        <v>83.34644724711615</v>
+        <v>83.3464472471162</v>
       </c>
       <c r="V37" t="n">
-        <v>49.17722725543214</v>
+        <v>49.1772272554322</v>
       </c>
       <c r="W37" t="n">
-        <v>83.56258226819514</v>
+        <v>83.5625822681952</v>
       </c>
       <c r="X37" t="n">
-        <v>22.74923932064129</v>
+        <v>22.74923932064135</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.62423728369893</v>
+        <v>15.62423728369899</v>
       </c>
     </row>
     <row r="38">
@@ -3588,19 +3588,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>70.11533567034496</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>180.2631702006786</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9238790503212</v>
@@ -3645,7 +3645,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>2.812569135081617</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>179.7734255950847</v>
+        <v>179.7734255950848</v>
       </c>
       <c r="C41" t="n">
-        <v>162.3124757026117</v>
+        <v>162.3124757026118</v>
       </c>
       <c r="D41" t="n">
-        <v>151.7226255522871</v>
+        <v>151.7226255522872</v>
       </c>
       <c r="E41" t="n">
         <v>178.969954003866</v>
       </c>
       <c r="F41" t="n">
-        <v>203.9156296733156</v>
+        <v>203.9156296733157</v>
       </c>
       <c r="G41" t="n">
         <v>211.8450829209694</v>
       </c>
       <c r="H41" t="n">
-        <v>131.4220419953309</v>
+        <v>131.422041995331</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>17.95877184917805</v>
+        <v>17.95877184917809</v>
       </c>
       <c r="U41" t="n">
-        <v>48.34545775737908</v>
+        <v>48.34545775737914</v>
       </c>
       <c r="V41" t="n">
         <v>124.7918424017391</v>
@@ -3803,7 +3803,7 @@
         <v>146.2805526490172</v>
       </c>
       <c r="X41" t="n">
-        <v>166.7706846100732</v>
+        <v>166.7706846100733</v>
       </c>
       <c r="Y41" t="n">
         <v>183.2775225876578</v>
@@ -3822,13 +3822,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.0774710972763</v>
@@ -3864,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U42" t="n">
         <v>225.9238790503212</v>
       </c>
       <c r="V42" t="n">
-        <v>34.50018266334677</v>
+        <v>133.4801179039739</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>48.73456709252383</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>17.16913187582525</v>
+        <v>17.16913187582531</v>
       </c>
       <c r="T43" t="n">
-        <v>24.03216681654031</v>
+        <v>24.03216681654036</v>
       </c>
       <c r="U43" t="n">
-        <v>83.34644724711617</v>
+        <v>83.34644724711623</v>
       </c>
       <c r="V43" t="n">
-        <v>49.17722725543217</v>
+        <v>49.17722725543223</v>
       </c>
       <c r="W43" t="n">
-        <v>83.56258226819517</v>
+        <v>83.56258226819523</v>
       </c>
       <c r="X43" t="n">
-        <v>22.74923932064132</v>
+        <v>22.74923932064138</v>
       </c>
       <c r="Y43" t="n">
-        <v>15.62423728369896</v>
+        <v>15.62423728369902</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>17.95877184917809</v>
+        <v>17.95877184917811</v>
       </c>
       <c r="U44" t="n">
         <v>48.34545775737914</v>
@@ -4059,7 +4059,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,25 +4104,25 @@
         <v>83.63964069051124</v>
       </c>
       <c r="S45" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.0923763501127</v>
+        <v>45.56155227465718</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9238790503212</v>
+        <v>22.96346298192547</v>
       </c>
       <c r="V45" t="n">
-        <v>29.8401710810295</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>124.0154985705181</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>2.722279708908587</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4811,7 +4811,7 @@
         <v>31.52363928117821</v>
       </c>
       <c r="M8" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N8" t="n">
         <v>61.2109500605402</v>
@@ -4823,7 +4823,7 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>51.15433024019471</v>
       </c>
       <c r="R8" t="n">
         <v>35.69701961884617</v>
@@ -4890,16 +4890,16 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>16.37392914119451</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>16.37392914119451</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>31.52363928117821</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P9" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
@@ -4908,22 +4908,22 @@
         <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
+        <v>45.75363943919166</v>
+      </c>
+      <c r="T9" t="n">
         <v>30.29632881784312</v>
       </c>
-      <c r="T9" t="n">
-        <v>17.43566227534506</v>
-      </c>
       <c r="U9" t="n">
-        <v>17.43566227534506</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="V9" t="n">
-        <v>17.43566227534506</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W9" t="n">
-        <v>17.43566227534506</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X9" t="n">
-        <v>17.43566227534506</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y9" t="n">
         <v>17.43566227534506</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.59615086525642</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="C10" t="n">
-        <v>32.13884024390788</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="D10" t="n">
         <v>16.68152962255934</v>
       </c>
       <c r="E10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="F10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="G10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="H10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="I10" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="J10" t="n">
         <v>1.224219001210804</v>
@@ -4966,13 +4966,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L10" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4981,31 +4981,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="R10" t="n">
-        <v>58.46202002507908</v>
+        <v>43.00470940373054</v>
       </c>
       <c r="S10" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="T10" t="n">
-        <v>58.46202002507908</v>
+        <v>27.54739878238201</v>
       </c>
       <c r="U10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.46202002507908</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>835.4997730670668</v>
+        <v>956.2212337532673</v>
       </c>
       <c r="C11" t="n">
-        <v>835.4997730670668</v>
+        <v>719.9125005075423</v>
       </c>
       <c r="D11" t="n">
-        <v>835.4997730670668</v>
+        <v>719.9125005075423</v>
       </c>
       <c r="E11" t="n">
-        <v>582.3653041635093</v>
+        <v>521.7806016908586</v>
       </c>
       <c r="F11" t="n">
-        <v>582.3653041635093</v>
+        <v>521.7806016908586</v>
       </c>
       <c r="G11" t="n">
-        <v>296.0236343335847</v>
+        <v>235.4389318609341</v>
       </c>
       <c r="H11" t="n">
-        <v>90.91735937804239</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I11" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J11" t="n">
-        <v>60.28333378761808</v>
+        <v>60.28333378761809</v>
       </c>
       <c r="K11" t="n">
-        <v>225.9164387697122</v>
+        <v>225.9164387697126</v>
       </c>
       <c r="L11" t="n">
-        <v>483.6755793232411</v>
+        <v>483.6755793232415</v>
       </c>
       <c r="M11" t="n">
-        <v>787.0888335313484</v>
+        <v>787.0888335313489</v>
       </c>
       <c r="N11" t="n">
-        <v>1080.779633855521</v>
+        <v>1080.779633855522</v>
       </c>
       <c r="O11" t="n">
         <v>1312.915890680385</v>
@@ -5060,31 +5060,31 @@
         <v>1473.364432310758</v>
       </c>
       <c r="Q11" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="R11" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="S11" t="n">
-        <v>1449.600521206433</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="T11" t="n">
-        <v>1395.911384583389</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="U11" t="n">
-        <v>1274.720851282344</v>
+        <v>1395.442311968544</v>
       </c>
       <c r="V11" t="n">
-        <v>1076.31174763346</v>
+        <v>1197.03320831966</v>
       </c>
       <c r="W11" t="n">
-        <v>1076.31174763346</v>
+        <v>1197.03320831966</v>
       </c>
       <c r="X11" t="n">
-        <v>835.4997730670668</v>
+        <v>956.2212337532673</v>
       </c>
       <c r="Y11" t="n">
-        <v>835.4997730670668</v>
+        <v>956.2212337532673</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>399.9928497597311</v>
+        <v>348.3862513943831</v>
       </c>
       <c r="C12" t="n">
-        <v>358.1936041732909</v>
+        <v>306.5870058079428</v>
       </c>
       <c r="D12" t="n">
-        <v>209.2591945120396</v>
+        <v>290.3063798413783</v>
       </c>
       <c r="E12" t="n">
-        <v>182.6755232012709</v>
+        <v>263.7227085306096</v>
       </c>
       <c r="F12" t="n">
-        <v>36.14096522815584</v>
+        <v>249.8419342521813</v>
       </c>
       <c r="G12" t="n">
-        <v>30.33265690539179</v>
+        <v>111.3798422347304</v>
       </c>
       <c r="H12" t="n">
-        <v>30.33265690539179</v>
+        <v>111.3798422347304</v>
       </c>
       <c r="I12" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J12" t="n">
-        <v>54.47769519076504</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="K12" t="n">
-        <v>222.3662545003936</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="L12" t="n">
-        <v>509.5175375140811</v>
+        <v>317.4839399190793</v>
       </c>
       <c r="M12" t="n">
-        <v>509.5175375140811</v>
+        <v>692.8505691233028</v>
       </c>
       <c r="N12" t="n">
-        <v>884.8841667183044</v>
+        <v>1068.217198327526</v>
       </c>
       <c r="O12" t="n">
-        <v>1180.678769062277</v>
+        <v>1283.694269048952</v>
       </c>
       <c r="P12" t="n">
-        <v>1413.617345282915</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="Q12" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="R12" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="S12" t="n">
         <v>1480.860889453186</v>
       </c>
       <c r="T12" t="n">
-        <v>1303.454038060838</v>
+        <v>1279.757478998527</v>
       </c>
       <c r="U12" t="n">
-        <v>1207.901883320857</v>
+        <v>1051.551540563859</v>
       </c>
       <c r="V12" t="n">
-        <v>1105.403558783801</v>
+        <v>949.0532160268034</v>
       </c>
       <c r="W12" t="n">
-        <v>851.1662020555991</v>
+        <v>799.559603690251</v>
       </c>
       <c r="X12" t="n">
-        <v>775.9684855447531</v>
+        <v>591.7081034847182</v>
       </c>
       <c r="Y12" t="n">
-        <v>568.2081867797991</v>
+        <v>516.601588414451</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>197.1827153748807</v>
+        <v>626.1932187321347</v>
       </c>
       <c r="C13" t="n">
-        <v>160.9003161416606</v>
+        <v>589.9108194989145</v>
       </c>
       <c r="D13" t="n">
-        <v>143.4374604240117</v>
+        <v>572.4479637812656</v>
       </c>
       <c r="E13" t="n">
-        <v>128.1781505363053</v>
+        <v>557.1886538935593</v>
       </c>
       <c r="F13" t="n">
-        <v>113.9419867330818</v>
+        <v>542.9524900903357</v>
       </c>
       <c r="G13" t="n">
-        <v>77.1332095450958</v>
+        <v>506.1437129023497</v>
       </c>
       <c r="H13" t="n">
-        <v>47.92425806010314</v>
+        <v>476.934761417357</v>
       </c>
       <c r="I13" t="n">
-        <v>30.33265690539179</v>
+        <v>459.3431602626457</v>
       </c>
       <c r="J13" t="n">
-        <v>30.33265690539179</v>
+        <v>512.5430699606018</v>
       </c>
       <c r="K13" t="n">
-        <v>163.954364009088</v>
+        <v>646.1647770642979</v>
       </c>
       <c r="L13" t="n">
-        <v>354.1114290537747</v>
+        <v>836.3218421089846</v>
       </c>
       <c r="M13" t="n">
-        <v>557.9269830039572</v>
+        <v>1040.137396059167</v>
       </c>
       <c r="N13" t="n">
-        <v>684.8282512933483</v>
+        <v>1247.632729800343</v>
       </c>
       <c r="O13" t="n">
-        <v>870.3925061754405</v>
+        <v>1303.183011283272</v>
       </c>
       <c r="P13" t="n">
-        <v>1024.418659762039</v>
+        <v>1453.429163119293</v>
       </c>
       <c r="Q13" t="n">
-        <v>1087.622341912336</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="R13" t="n">
-        <v>1051.322066754919</v>
+        <v>1480.332570112173</v>
       </c>
       <c r="S13" t="n">
-        <v>961.6227717180697</v>
+        <v>1390.633275075324</v>
       </c>
       <c r="T13" t="n">
-        <v>864.9911181552452</v>
+        <v>1294.001621512499</v>
       </c>
       <c r="U13" t="n">
-        <v>708.4460500160815</v>
+        <v>1137.456553373336</v>
       </c>
       <c r="V13" t="n">
-        <v>586.4153455048813</v>
+        <v>1015.425848862135</v>
       </c>
       <c r="W13" t="n">
-        <v>429.6519591626075</v>
+        <v>858.6624625198615</v>
       </c>
       <c r="X13" t="n">
-        <v>334.316191959277</v>
+        <v>763.326695316531</v>
       </c>
       <c r="Y13" t="n">
-        <v>246.1773965104337</v>
+        <v>675.1878998676876</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1017.79820515841</v>
+        <v>753.6659025042936</v>
       </c>
       <c r="C14" t="n">
-        <v>781.4894719126853</v>
+        <v>630.3934981115245</v>
       </c>
       <c r="D14" t="n">
-        <v>781.4894719126853</v>
+        <v>630.3934981115245</v>
       </c>
       <c r="E14" t="n">
-        <v>528.3550030091278</v>
+        <v>377.259029207967</v>
       </c>
       <c r="F14" t="n">
-        <v>250.0228819142071</v>
+        <v>377.259029207967</v>
       </c>
       <c r="G14" t="n">
-        <v>235.438931860934</v>
+        <v>90.91735937804249</v>
       </c>
       <c r="H14" t="n">
-        <v>30.33265690539179</v>
+        <v>90.91735937804249</v>
       </c>
       <c r="I14" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J14" t="n">
-        <v>60.28333378761808</v>
+        <v>60.28333378761809</v>
       </c>
       <c r="K14" t="n">
         <v>225.9164387697122</v>
       </c>
       <c r="L14" t="n">
-        <v>483.6755793232411</v>
+        <v>483.6755793232412</v>
       </c>
       <c r="M14" t="n">
         <v>787.0888335313484</v>
@@ -5300,28 +5300,28 @@
         <v>1516.632845269589</v>
       </c>
       <c r="R14" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="S14" t="n">
-        <v>1449.600521206433</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="T14" t="n">
-        <v>1359.103610034883</v>
+        <v>1426.13593409804</v>
       </c>
       <c r="U14" t="n">
-        <v>1237.913076733838</v>
+        <v>1426.13593409804</v>
       </c>
       <c r="V14" t="n">
-        <v>1237.913076733838</v>
+        <v>1227.726830449156</v>
       </c>
       <c r="W14" t="n">
-        <v>1017.79820515841</v>
+        <v>1007.611958873729</v>
       </c>
       <c r="X14" t="n">
-        <v>1017.79820515841</v>
+        <v>1007.611958873729</v>
       </c>
       <c r="Y14" t="n">
-        <v>1017.79820515841</v>
+        <v>1007.611958873729</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>399.9928497597311</v>
+        <v>591.8137717926577</v>
       </c>
       <c r="C15" t="n">
-        <v>358.1936041732909</v>
+        <v>550.0145262062174</v>
       </c>
       <c r="D15" t="n">
-        <v>341.9129782067264</v>
+        <v>401.0801165449662</v>
       </c>
       <c r="E15" t="n">
-        <v>182.6755232012709</v>
+        <v>241.8426615395107</v>
       </c>
       <c r="F15" t="n">
-        <v>36.14096522815584</v>
+        <v>227.9618872610824</v>
       </c>
       <c r="G15" t="n">
-        <v>30.33265690539179</v>
+        <v>222.1535789383183</v>
       </c>
       <c r="H15" t="n">
-        <v>30.33265690539179</v>
+        <v>111.3798422347304</v>
       </c>
       <c r="I15" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J15" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="K15" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="L15" t="n">
         <v>317.4839399190793</v>
       </c>
       <c r="M15" t="n">
-        <v>692.8505691233026</v>
+        <v>692.8505691233028</v>
       </c>
       <c r="N15" t="n">
-        <v>869.2592193232667</v>
+        <v>1068.217198327526</v>
       </c>
       <c r="O15" t="n">
-        <v>1180.678769062277</v>
+        <v>1379.636748066537</v>
       </c>
       <c r="P15" t="n">
-        <v>1413.617345282915</v>
+        <v>1413.617345282916</v>
       </c>
       <c r="Q15" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="R15" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="S15" t="n">
-        <v>1480.860889453186</v>
+        <v>1348.2071057585</v>
       </c>
       <c r="T15" t="n">
-        <v>1412.411262693214</v>
+        <v>1279.757478998527</v>
       </c>
       <c r="U15" t="n">
-        <v>1316.859107953232</v>
+        <v>1184.205324258546</v>
       </c>
       <c r="V15" t="n">
-        <v>1214.360783416176</v>
+        <v>1081.70699972149</v>
       </c>
       <c r="W15" t="n">
-        <v>983.8199857502859</v>
+        <v>910.3333403938391</v>
       </c>
       <c r="X15" t="n">
-        <v>775.9684855447531</v>
+        <v>835.1356238829929</v>
       </c>
       <c r="Y15" t="n">
-        <v>568.2081867797992</v>
+        <v>760.0291088127258</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>197.1827153748807</v>
+        <v>197.1827153748811</v>
       </c>
       <c r="C16" t="n">
-        <v>160.9003161416606</v>
+        <v>160.9003161416609</v>
       </c>
       <c r="D16" t="n">
-        <v>143.4374604240117</v>
+        <v>143.437460424012</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1781505363053</v>
+        <v>128.1781505363056</v>
       </c>
       <c r="F16" t="n">
-        <v>113.9419867330818</v>
+        <v>113.9419867330819</v>
       </c>
       <c r="G16" t="n">
-        <v>77.1332095450958</v>
+        <v>77.13320954509592</v>
       </c>
       <c r="H16" t="n">
-        <v>47.92425806010314</v>
+        <v>47.92425806010321</v>
       </c>
       <c r="I16" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J16" t="n">
-        <v>79.75256485276984</v>
+        <v>83.53256660334795</v>
       </c>
       <c r="K16" t="n">
-        <v>83.36029855730354</v>
+        <v>213.3742719564669</v>
       </c>
       <c r="L16" t="n">
-        <v>273.5173636019903</v>
+        <v>403.5313370011536</v>
       </c>
       <c r="M16" t="n">
-        <v>477.3329175521727</v>
+        <v>607.346890951336</v>
       </c>
       <c r="N16" t="n">
-        <v>684.8282512933483</v>
+        <v>814.8422246925115</v>
       </c>
       <c r="O16" t="n">
-        <v>870.3925061754405</v>
+        <v>870.3925061754412</v>
       </c>
       <c r="P16" t="n">
-        <v>1024.418659762039</v>
+        <v>1024.41865976204</v>
       </c>
       <c r="Q16" t="n">
         <v>1087.622341912336</v>
       </c>
       <c r="R16" t="n">
-        <v>1051.322066754919</v>
+        <v>1051.32206675492</v>
       </c>
       <c r="S16" t="n">
-        <v>961.6227717180697</v>
+        <v>961.6227717180705</v>
       </c>
       <c r="T16" t="n">
-        <v>864.9911181552452</v>
+        <v>864.9911181552459</v>
       </c>
       <c r="U16" t="n">
-        <v>708.4460500160815</v>
+        <v>708.4460500160822</v>
       </c>
       <c r="V16" t="n">
-        <v>586.4153455048813</v>
+        <v>586.415345504882</v>
       </c>
       <c r="W16" t="n">
-        <v>429.6519591626075</v>
+        <v>429.6519591626081</v>
       </c>
       <c r="X16" t="n">
-        <v>334.316191959277</v>
+        <v>334.3161919592775</v>
       </c>
       <c r="Y16" t="n">
-        <v>246.1773965104337</v>
+        <v>246.1773965104341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>869.9212986872026</v>
+        <v>869.9212986872028</v>
       </c>
       <c r="C17" t="n">
         <v>741.1536556347983</v>
       </c>
       <c r="D17" t="n">
-        <v>623.0828309160551</v>
+        <v>623.0828309160548</v>
       </c>
       <c r="E17" t="n">
-        <v>477.4894522058181</v>
+        <v>477.4894522058178</v>
       </c>
       <c r="F17" t="n">
-        <v>306.6984213042178</v>
+        <v>306.6984213042174</v>
       </c>
       <c r="G17" t="n">
-        <v>127.8978416676136</v>
+        <v>127.8978416676137</v>
       </c>
       <c r="H17" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I17" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J17" t="n">
-        <v>60.28333378761808</v>
+        <v>60.28333378761809</v>
       </c>
       <c r="K17" t="n">
         <v>225.9164387697122</v>
       </c>
       <c r="L17" t="n">
-        <v>483.6755793232411</v>
+        <v>483.6755793232412</v>
       </c>
       <c r="M17" t="n">
         <v>787.0888335313484</v>
@@ -5540,19 +5540,19 @@
         <v>1516.632845269589</v>
       </c>
       <c r="S17" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="T17" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="U17" t="n">
-        <v>1502.983402161864</v>
+        <v>1502.983402161865</v>
       </c>
       <c r="V17" t="n">
         <v>1412.115388706301</v>
       </c>
       <c r="W17" t="n">
-        <v>1299.541607324194</v>
+        <v>1299.541607324195</v>
       </c>
       <c r="X17" t="n">
         <v>1166.270722951122</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>353.72009584777</v>
+        <v>797.9542008437915</v>
       </c>
       <c r="C18" t="n">
-        <v>179.2670665666431</v>
+        <v>623.5011715626645</v>
       </c>
       <c r="D18" t="n">
-        <v>30.33265690539179</v>
+        <v>474.5667619014131</v>
       </c>
       <c r="E18" t="n">
-        <v>30.33265690539179</v>
+        <v>315.3293068959576</v>
       </c>
       <c r="F18" t="n">
-        <v>30.33265690539179</v>
+        <v>168.7947489228426</v>
       </c>
       <c r="G18" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="H18" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I18" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J18" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="K18" t="n">
-        <v>64.31325412177063</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="L18" t="n">
-        <v>351.4645371354581</v>
+        <v>317.4839399190793</v>
       </c>
       <c r="M18" t="n">
-        <v>726.8311663396814</v>
+        <v>692.8505691233028</v>
       </c>
       <c r="N18" t="n">
-        <v>1102.197795543905</v>
+        <v>1068.217198327526</v>
       </c>
       <c r="O18" t="n">
-        <v>1413.617345282915</v>
+        <v>1180.678769062278</v>
       </c>
       <c r="P18" t="n">
-        <v>1413.617345282915</v>
+        <v>1413.617345282916</v>
       </c>
       <c r="Q18" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="R18" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="S18" t="n">
-        <v>1516.632845269589</v>
+        <v>1516.63284526959</v>
       </c>
       <c r="T18" t="n">
-        <v>1315.52943481493</v>
+        <v>1395.823819674541</v>
       </c>
       <c r="U18" t="n">
-        <v>1087.323496380262</v>
+        <v>1395.823819674541</v>
       </c>
       <c r="V18" t="n">
-        <v>1087.323496380262</v>
+        <v>1395.823819674541</v>
       </c>
       <c r="W18" t="n">
-        <v>937.5472318383247</v>
+        <v>1381.781336834346</v>
       </c>
       <c r="X18" t="n">
-        <v>729.6957316327919</v>
+        <v>1173.929836628813</v>
       </c>
       <c r="Y18" t="n">
-        <v>521.935432867838</v>
+        <v>966.1695378638594</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.33265690539179</v>
+        <v>177.2226044033021</v>
       </c>
       <c r="C19" t="n">
-        <v>30.33265690539179</v>
+        <v>177.2226044033021</v>
       </c>
       <c r="D19" t="n">
-        <v>30.33265690539179</v>
+        <v>177.2226044033021</v>
       </c>
       <c r="E19" t="n">
-        <v>30.33265690539179</v>
+        <v>177.2226044033021</v>
       </c>
       <c r="F19" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="G19" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="H19" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I19" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J19" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="K19" t="n">
-        <v>33.94039060992549</v>
+        <v>33.94039060992551</v>
       </c>
       <c r="L19" t="n">
-        <v>94.08348225544971</v>
+        <v>94.08348225544972</v>
       </c>
       <c r="M19" t="n">
         <v>167.8850628064697</v>
@@ -5692,31 +5692,31 @@
         <v>324.9288848188485</v>
       </c>
       <c r="Q19" t="n">
-        <v>324.9288848188485</v>
+        <v>289.9384928159787</v>
       </c>
       <c r="R19" t="n">
-        <v>324.9288848188485</v>
+        <v>289.9384928159787</v>
       </c>
       <c r="S19" t="n">
-        <v>324.9288848188485</v>
+        <v>289.9384928159787</v>
       </c>
       <c r="T19" t="n">
-        <v>324.9288848188485</v>
+        <v>289.9384928159787</v>
       </c>
       <c r="U19" t="n">
-        <v>275.9249068730052</v>
+        <v>240.9345148701353</v>
       </c>
       <c r="V19" t="n">
-        <v>261.4352925551256</v>
+        <v>226.4449005522556</v>
       </c>
       <c r="W19" t="n">
-        <v>30.33265690539179</v>
+        <v>177.2226044033021</v>
       </c>
       <c r="X19" t="n">
-        <v>30.33265690539179</v>
+        <v>177.2226044033021</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.33265690539179</v>
+        <v>177.2226044033021</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>869.921298687203</v>
+        <v>869.9212986872027</v>
       </c>
       <c r="C20" t="n">
-        <v>741.1536556347985</v>
+        <v>741.1536556347982</v>
       </c>
       <c r="D20" t="n">
-        <v>623.0828309160552</v>
+        <v>623.0828309160548</v>
       </c>
       <c r="E20" t="n">
-        <v>477.4894522058182</v>
+        <v>477.4894522058178</v>
       </c>
       <c r="F20" t="n">
-        <v>306.6984213042178</v>
+        <v>306.6984213042174</v>
       </c>
       <c r="G20" t="n">
-        <v>127.8978416676136</v>
+        <v>127.8978416676137</v>
       </c>
       <c r="H20" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I20" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J20" t="n">
-        <v>60.28333378761795</v>
+        <v>60.28333378761818</v>
       </c>
       <c r="K20" t="n">
-        <v>225.9164387697122</v>
+        <v>225.9164387697124</v>
       </c>
       <c r="L20" t="n">
-        <v>483.6755793232411</v>
+        <v>483.6755793232414</v>
       </c>
       <c r="M20" t="n">
-        <v>787.0888335313484</v>
+        <v>787.0888335313489</v>
       </c>
       <c r="N20" t="n">
-        <v>1080.779633855521</v>
+        <v>1080.779633855522</v>
       </c>
       <c r="O20" t="n">
         <v>1312.915890680385</v>
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>659.4921088263405</v>
+        <v>533.8039841034824</v>
       </c>
       <c r="C21" t="n">
-        <v>485.0390795452136</v>
+        <v>359.3509548223554</v>
       </c>
       <c r="D21" t="n">
-        <v>336.1046698839623</v>
+        <v>359.3509548223554</v>
       </c>
       <c r="E21" t="n">
-        <v>176.8672148785068</v>
+        <v>359.3509548223554</v>
       </c>
       <c r="F21" t="n">
-        <v>30.33265690539179</v>
+        <v>279.5684856264305</v>
       </c>
       <c r="G21" t="n">
-        <v>30.33265690539179</v>
+        <v>141.1063936089796</v>
       </c>
       <c r="H21" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I21" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J21" t="n">
-        <v>30.33265690539179</v>
+        <v>54.47769519076506</v>
       </c>
       <c r="K21" t="n">
-        <v>198.2212162150204</v>
+        <v>222.3662545003937</v>
       </c>
       <c r="L21" t="n">
-        <v>485.3724992287079</v>
+        <v>509.5175375140812</v>
       </c>
       <c r="M21" t="n">
-        <v>860.7391284329312</v>
+        <v>884.8841667183046</v>
       </c>
       <c r="N21" t="n">
-        <v>1236.105757637155</v>
+        <v>972.2747193099412</v>
       </c>
       <c r="O21" t="n">
         <v>1283.694269048952</v>
@@ -5853,28 +5853,28 @@
         <v>1516.63284526959</v>
       </c>
       <c r="R21" t="n">
-        <v>1516.63284526959</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="S21" t="n">
-        <v>1516.63284526959</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="T21" t="n">
-        <v>1516.63284526959</v>
+        <v>1231.044949268959</v>
       </c>
       <c r="U21" t="n">
-        <v>1516.63284526959</v>
+        <v>1231.044949268959</v>
       </c>
       <c r="V21" t="n">
-        <v>1329.341264525029</v>
+        <v>995.8928410372168</v>
       </c>
       <c r="W21" t="n">
-        <v>1075.103907796827</v>
+        <v>741.6554843090153</v>
       </c>
       <c r="X21" t="n">
-        <v>867.2524075912945</v>
+        <v>533.8039841034824</v>
       </c>
       <c r="Y21" t="n">
-        <v>659.4921088263405</v>
+        <v>533.8039841034824</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="C22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="D22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="E22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="F22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="G22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="H22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="K22" t="n">
-        <v>33.94039060992549</v>
+        <v>33.94039060992551</v>
       </c>
       <c r="L22" t="n">
-        <v>94.08348225544971</v>
+        <v>94.08348225544972</v>
       </c>
       <c r="M22" t="n">
         <v>167.8850628064697</v>
@@ -5938,22 +5938,22 @@
         <v>324.9288848188485</v>
       </c>
       <c r="T22" t="n">
-        <v>143.0485453180681</v>
+        <v>324.9288848188485</v>
       </c>
       <c r="U22" t="n">
-        <v>94.04456737222485</v>
+        <v>275.9249068730052</v>
       </c>
       <c r="V22" t="n">
-        <v>79.55495305434519</v>
+        <v>261.4352925551254</v>
       </c>
       <c r="W22" t="n">
-        <v>30.33265690539179</v>
+        <v>212.212996406172</v>
       </c>
       <c r="X22" t="n">
-        <v>30.33265690539179</v>
+        <v>212.212996406172</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.33265690539179</v>
+        <v>30.3326569053918</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>869.9212986872033</v>
+        <v>869.9212986872028</v>
       </c>
       <c r="C23" t="n">
-        <v>741.1536556347987</v>
+        <v>741.1536556347983</v>
       </c>
       <c r="D23" t="n">
-        <v>623.0828309160554</v>
+        <v>623.0828309160551</v>
       </c>
       <c r="E23" t="n">
-        <v>477.4894522058184</v>
+        <v>477.489452205818</v>
       </c>
       <c r="F23" t="n">
-        <v>306.6984213042181</v>
+        <v>306.6984213042176</v>
       </c>
       <c r="G23" t="n">
-        <v>127.8978416676136</v>
+        <v>127.8978416676137</v>
       </c>
       <c r="H23" t="n">
-        <v>30.33265690539181</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I23" t="n">
-        <v>30.33265690539181</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J23" t="n">
         <v>60.2833337876181</v>
@@ -5993,7 +5993,7 @@
         <v>225.9164387697122</v>
       </c>
       <c r="L23" t="n">
-        <v>483.6755793232411</v>
+        <v>483.6755793232412</v>
       </c>
       <c r="M23" t="n">
         <v>787.0888335313484</v>
@@ -6023,7 +6023,7 @@
         <v>1502.983402161865</v>
       </c>
       <c r="V23" t="n">
-        <v>1412.115388706302</v>
+        <v>1412.115388706301</v>
       </c>
       <c r="W23" t="n">
         <v>1299.541607324195</v>
@@ -6032,7 +6032,7 @@
         <v>1166.270722951122</v>
       </c>
       <c r="Y23" t="n">
-        <v>1016.326264863318</v>
+        <v>1016.326264863317</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>659.4921088263407</v>
+        <v>806.6765289350592</v>
       </c>
       <c r="C24" t="n">
-        <v>485.0390795452136</v>
+        <v>806.6765289350592</v>
       </c>
       <c r="D24" t="n">
-        <v>336.1046698839623</v>
+        <v>657.7421192738079</v>
       </c>
       <c r="E24" t="n">
-        <v>176.8672148785068</v>
+        <v>498.5046642683524</v>
       </c>
       <c r="F24" t="n">
-        <v>30.33265690539181</v>
+        <v>351.9701062952374</v>
       </c>
       <c r="G24" t="n">
-        <v>30.33265690539181</v>
+        <v>222.1535789383183</v>
       </c>
       <c r="H24" t="n">
-        <v>30.33265690539181</v>
+        <v>111.3798422347304</v>
       </c>
       <c r="I24" t="n">
-        <v>30.33265690539181</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J24" t="n">
-        <v>30.33265690539181</v>
+        <v>54.47769519076506</v>
       </c>
       <c r="K24" t="n">
-        <v>198.2212162150204</v>
+        <v>222.3662545003937</v>
       </c>
       <c r="L24" t="n">
-        <v>485.3724992287079</v>
+        <v>351.4645371354584</v>
       </c>
       <c r="M24" t="n">
-        <v>860.7391284329315</v>
+        <v>726.8311663396819</v>
       </c>
       <c r="N24" t="n">
-        <v>972.2747193099422</v>
+        <v>1102.197795543905</v>
       </c>
       <c r="O24" t="n">
-        <v>1283.694269048953</v>
+        <v>1413.617345282916</v>
       </c>
       <c r="P24" t="n">
-        <v>1516.63284526959</v>
+        <v>1413.617345282916</v>
       </c>
       <c r="Q24" t="n">
         <v>1516.63284526959</v>
       </c>
       <c r="R24" t="n">
-        <v>1458.222042291233</v>
+        <v>1432.148359723619</v>
       </c>
       <c r="S24" t="n">
-        <v>1289.796302780143</v>
+        <v>1263.722620212529</v>
       </c>
       <c r="T24" t="n">
-        <v>1289.796302780143</v>
+        <v>1263.722620212529</v>
       </c>
       <c r="U24" t="n">
-        <v>1289.796302780143</v>
+        <v>1263.722620212529</v>
       </c>
       <c r="V24" t="n">
-        <v>1289.796302780143</v>
+        <v>1028.570511980786</v>
       </c>
       <c r="W24" t="n">
-        <v>1035.558946051942</v>
+        <v>1014.528029140592</v>
       </c>
       <c r="X24" t="n">
-        <v>827.7074458464087</v>
+        <v>806.6765289350592</v>
       </c>
       <c r="Y24" t="n">
-        <v>827.7074458464087</v>
+        <v>806.6765289350592</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>144.0461856227157</v>
+        <v>199.7952177880645</v>
       </c>
       <c r="C25" t="n">
-        <v>144.0461856227157</v>
+        <v>199.7952177880645</v>
       </c>
       <c r="D25" t="n">
-        <v>144.0461856227157</v>
+        <v>199.7952177880645</v>
       </c>
       <c r="E25" t="n">
-        <v>144.0461856227157</v>
+        <v>199.7952177880645</v>
       </c>
       <c r="F25" t="n">
-        <v>144.0461856227157</v>
+        <v>199.7952177880645</v>
       </c>
       <c r="G25" t="n">
-        <v>144.0461856227157</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="H25" t="n">
-        <v>30.33265690539181</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="I25" t="n">
-        <v>30.33265690539181</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="J25" t="n">
-        <v>30.33265690539181</v>
+        <v>30.3326569053918</v>
       </c>
       <c r="K25" t="n">
-        <v>33.94039060992552</v>
+        <v>33.94039060992551</v>
       </c>
       <c r="L25" t="n">
         <v>94.08348225544972</v>
@@ -6166,31 +6166,31 @@
         <v>324.9288848188485</v>
       </c>
       <c r="Q25" t="n">
-        <v>256.7620740353921</v>
+        <v>312.511106200741</v>
       </c>
       <c r="R25" t="n">
-        <v>256.7620740353921</v>
+        <v>312.511106200741</v>
       </c>
       <c r="S25" t="n">
-        <v>256.7620740353921</v>
+        <v>312.511106200741</v>
       </c>
       <c r="T25" t="n">
-        <v>256.7620740353921</v>
+        <v>312.511106200741</v>
       </c>
       <c r="U25" t="n">
-        <v>207.7580960895488</v>
+        <v>263.5071282548977</v>
       </c>
       <c r="V25" t="n">
-        <v>193.2684817716691</v>
+        <v>249.017513937018</v>
       </c>
       <c r="W25" t="n">
-        <v>144.0461856227157</v>
+        <v>199.7952177880645</v>
       </c>
       <c r="X25" t="n">
-        <v>144.0461856227157</v>
+        <v>199.7952177880645</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.0461856227157</v>
+        <v>199.7952177880645</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>1466.702070641501</v>
       </c>
       <c r="C26" t="n">
-        <v>1249.533226033381</v>
+        <v>1249.533226033382</v>
       </c>
       <c r="D26" t="n">
         <v>1043.061199758923</v>
       </c>
       <c r="E26" t="n">
-        <v>809.0666194929706</v>
+        <v>809.0666194929711</v>
       </c>
       <c r="F26" t="n">
-        <v>549.8743870356552</v>
+        <v>549.8743870356556</v>
       </c>
       <c r="G26" t="n">
-        <v>282.672605843336</v>
+        <v>282.6726058433358</v>
       </c>
       <c r="H26" t="n">
-        <v>96.70621952539901</v>
+        <v>96.70621952539878</v>
       </c>
       <c r="I26" t="n">
         <v>55.26140569035348</v>
       </c>
       <c r="J26" t="n">
-        <v>233.9850608254593</v>
+        <v>233.9850608254592</v>
       </c>
       <c r="K26" t="n">
         <v>548.3911440604329</v>
       </c>
       <c r="L26" t="n">
-        <v>954.9232628668414</v>
+        <v>954.9232628668412</v>
       </c>
       <c r="M26" t="n">
         <v>1407.109495327828</v>
@@ -6257,7 +6257,7 @@
         <v>2643.820826558179</v>
       </c>
       <c r="U26" t="n">
-        <v>2541.770181894738</v>
+        <v>2541.770181894739</v>
       </c>
       <c r="V26" t="n">
         <v>2362.50096688346</v>
@@ -6266,10 +6266,10 @@
         <v>2161.525983945638</v>
       </c>
       <c r="X26" t="n">
-        <v>1939.85389801685</v>
+        <v>1939.853898016851</v>
       </c>
       <c r="Y26" t="n">
-        <v>1701.50823837333</v>
+        <v>1701.508238373331</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>766.3433265671317</v>
+        <v>530.0651686888689</v>
       </c>
       <c r="C27" t="n">
-        <v>591.8902972860047</v>
+        <v>355.6121394077419</v>
       </c>
       <c r="D27" t="n">
-        <v>442.9558876247535</v>
+        <v>206.6777297464906</v>
       </c>
       <c r="E27" t="n">
-        <v>283.718432619298</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="F27" t="n">
-        <v>137.1838746461829</v>
+        <v>55.26140569035348</v>
       </c>
       <c r="G27" t="n">
         <v>55.26140569035348</v>
@@ -6327,28 +6327,28 @@
         <v>1981.913998921172</v>
       </c>
       <c r="R27" t="n">
-        <v>1981.913998921172</v>
+        <v>1897.429513375201</v>
       </c>
       <c r="S27" t="n">
-        <v>1965.281931742374</v>
+        <v>1729.003773864111</v>
       </c>
       <c r="T27" t="n">
-        <v>1915.972193620007</v>
+        <v>1679.694035741744</v>
       </c>
       <c r="U27" t="n">
-        <v>1687.766255185339</v>
+        <v>1451.488097307076</v>
       </c>
       <c r="V27" t="n">
-        <v>1452.614146953596</v>
+        <v>1216.335989075333</v>
       </c>
       <c r="W27" t="n">
-        <v>1198.376790225394</v>
+        <v>962.0986323471316</v>
       </c>
       <c r="X27" t="n">
-        <v>990.5252900198616</v>
+        <v>754.2471321415987</v>
       </c>
       <c r="Y27" t="n">
-        <v>934.5586635871998</v>
+        <v>698.280505708937</v>
       </c>
     </row>
     <row r="28">
@@ -6382,13 +6382,13 @@
         <v>56.77888225233786</v>
       </c>
       <c r="J28" t="n">
-        <v>128.737796804011</v>
+        <v>56.77888225233786</v>
       </c>
       <c r="K28" t="n">
-        <v>132.3455305085447</v>
+        <v>60.38661595687157</v>
       </c>
       <c r="L28" t="n">
-        <v>192.4886221540689</v>
+        <v>197.7152945017691</v>
       </c>
       <c r="M28" t="n">
         <v>271.516875052789</v>
@@ -6440,19 +6440,19 @@
         <v>1466.7020706415</v>
       </c>
       <c r="C29" t="n">
-        <v>1249.533226033381</v>
+        <v>1249.53322603338</v>
       </c>
       <c r="D29" t="n">
         <v>1043.061199758922</v>
       </c>
       <c r="E29" t="n">
-        <v>809.0666194929702</v>
+        <v>809.0666194929697</v>
       </c>
       <c r="F29" t="n">
-        <v>549.8743870356548</v>
+        <v>549.8743870356543</v>
       </c>
       <c r="G29" t="n">
-        <v>282.6726058433355</v>
+        <v>282.6726058433351</v>
       </c>
       <c r="H29" t="n">
         <v>96.70621952539878</v>
@@ -6461,13 +6461,13 @@
         <v>55.26140569035348</v>
       </c>
       <c r="J29" t="n">
-        <v>233.9850608254592</v>
+        <v>233.9850608254596</v>
       </c>
       <c r="K29" t="n">
-        <v>548.3911440604329</v>
+        <v>548.3911440604331</v>
       </c>
       <c r="L29" t="n">
-        <v>954.9232628668412</v>
+        <v>954.9232628668415</v>
       </c>
       <c r="M29" t="n">
         <v>1407.109495327828</v>
@@ -6488,10 +6488,10 @@
         <v>2763.070284517674</v>
       </c>
       <c r="S29" t="n">
-        <v>2715.177849092123</v>
+        <v>2715.177849092122</v>
       </c>
       <c r="T29" t="n">
-        <v>2643.820826558179</v>
+        <v>2643.820826558178</v>
       </c>
       <c r="U29" t="n">
         <v>2541.770181894738</v>
@@ -6519,10 +6519,10 @@
         <v>752.1364626257997</v>
       </c>
       <c r="C30" t="n">
-        <v>577.6834333446727</v>
+        <v>729.4771056769648</v>
       </c>
       <c r="D30" t="n">
-        <v>428.7490236834214</v>
+        <v>580.5426960157135</v>
       </c>
       <c r="E30" t="n">
         <v>421.305241010258</v>
@@ -6570,22 +6570,22 @@
         <v>1965.281931742374</v>
       </c>
       <c r="T30" t="n">
-        <v>1915.972193620007</v>
+        <v>1764.178521287715</v>
       </c>
       <c r="U30" t="n">
-        <v>1825.353063576299</v>
+        <v>1535.972582853047</v>
       </c>
       <c r="V30" t="n">
-        <v>1590.200955344556</v>
+        <v>1300.820474621304</v>
       </c>
       <c r="W30" t="n">
-        <v>1335.963598616354</v>
+        <v>1198.376790225395</v>
       </c>
       <c r="X30" t="n">
-        <v>1128.112098410822</v>
+        <v>990.5252900198618</v>
       </c>
       <c r="Y30" t="n">
-        <v>920.3517996458677</v>
+        <v>782.764991254908</v>
       </c>
     </row>
     <row r="31">
@@ -6619,25 +6619,25 @@
         <v>55.26140569035348</v>
       </c>
       <c r="J31" t="n">
-        <v>55.26140569035348</v>
+        <v>127.2203202420267</v>
       </c>
       <c r="K31" t="n">
-        <v>58.86913939488719</v>
+        <v>279.6010321994398</v>
       </c>
       <c r="L31" t="n">
-        <v>119.0122310404114</v>
+        <v>488.5171020978435</v>
       </c>
       <c r="M31" t="n">
-        <v>341.5867898443108</v>
+        <v>562.3186826488635</v>
       </c>
       <c r="N31" t="n">
-        <v>567.8411284392034</v>
+        <v>639.8000429908766</v>
       </c>
       <c r="O31" t="n">
-        <v>772.1643881750126</v>
+        <v>712.3476292912935</v>
       </c>
       <c r="P31" t="n">
-        <v>818.3224964827434</v>
+        <v>736.3598094787295</v>
       </c>
       <c r="Q31" t="n">
         <v>818.3224964827434</v>
@@ -6683,34 +6683,34 @@
         <v>1021.841403737936</v>
       </c>
       <c r="E32" t="n">
-        <v>791.8459388759391</v>
+        <v>791.8459388759388</v>
       </c>
       <c r="F32" t="n">
-        <v>536.652821822579</v>
+        <v>536.6528218225786</v>
       </c>
       <c r="G32" t="n">
-        <v>273.4501560342143</v>
+        <v>273.4501560342146</v>
       </c>
       <c r="H32" t="n">
-        <v>91.48288512023268</v>
+        <v>91.48288512023271</v>
       </c>
       <c r="I32" t="n">
         <v>54.03718668914269</v>
       </c>
       <c r="J32" t="n">
-        <v>236.6803748316651</v>
+        <v>141.4178467055863</v>
       </c>
       <c r="K32" t="n">
-        <v>555.0059910740553</v>
+        <v>459.7434629479765</v>
       </c>
       <c r="L32" t="n">
-        <v>870.1951147618013</v>
+        <v>870.1951147618015</v>
       </c>
       <c r="M32" t="n">
         <v>1326.300880230205</v>
       </c>
       <c r="N32" t="n">
-        <v>1772.684191814673</v>
+        <v>1772.684191814674</v>
       </c>
       <c r="O32" t="n">
         <v>2157.512959899833</v>
@@ -6725,25 +6725,25 @@
         <v>2701.859334457134</v>
       </c>
       <c r="S32" t="n">
-        <v>2657.966014435538</v>
+        <v>2657.966014435537</v>
       </c>
       <c r="T32" t="n">
-        <v>2590.608107305549</v>
+        <v>2590.608107305548</v>
       </c>
       <c r="U32" t="n">
         <v>2492.556578046064</v>
       </c>
       <c r="V32" t="n">
-        <v>2317.286478438741</v>
+        <v>2317.28647843874</v>
       </c>
       <c r="W32" t="n">
         <v>2120.310610904874</v>
       </c>
       <c r="X32" t="n">
-        <v>1902.637640380042</v>
+        <v>1902.637640380041</v>
       </c>
       <c r="Y32" t="n">
-        <v>1668.291096140478</v>
+        <v>1668.291096140477</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>683.1966386100914</v>
+        <v>783.4980576698789</v>
       </c>
       <c r="C33" t="n">
-        <v>508.7436093289645</v>
+        <v>609.0450283887519</v>
       </c>
       <c r="D33" t="n">
-        <v>359.8091996677132</v>
+        <v>609.0450283887519</v>
       </c>
       <c r="E33" t="n">
-        <v>200.5717446622577</v>
+        <v>449.8075733832964</v>
       </c>
       <c r="F33" t="n">
-        <v>54.03718668914269</v>
+        <v>303.2730154101814</v>
       </c>
       <c r="G33" t="n">
-        <v>54.03718668914269</v>
+        <v>164.8109233927305</v>
       </c>
       <c r="H33" t="n">
         <v>54.03718668914269</v>
@@ -6804,25 +6804,25 @@
         <v>1980.689779919961</v>
       </c>
       <c r="S33" t="n">
-        <v>1968.056828145119</v>
+        <v>1812.264040408871</v>
       </c>
       <c r="T33" t="n">
-        <v>1922.746205426707</v>
+        <v>1611.160629954212</v>
       </c>
       <c r="U33" t="n">
-        <v>1756.41323956059</v>
+        <v>1538.747479255791</v>
       </c>
       <c r="V33" t="n">
-        <v>1521.261131328848</v>
+        <v>1459.388158760296</v>
       </c>
       <c r="W33" t="n">
-        <v>1267.023774600646</v>
+        <v>1360.943589768342</v>
       </c>
       <c r="X33" t="n">
-        <v>1059.172274395113</v>
+        <v>1153.092089562809</v>
       </c>
       <c r="Y33" t="n">
-        <v>851.4119756301595</v>
+        <v>945.3317907978551</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.63422125820109</v>
+        <v>86.92030247065964</v>
       </c>
       <c r="C34" t="n">
-        <v>60.4908260665416</v>
+        <v>73.77690727900011</v>
       </c>
       <c r="D34" t="n">
-        <v>66.05401903880745</v>
+        <v>73.77690727900011</v>
       </c>
       <c r="E34" t="n">
-        <v>73.77690727900006</v>
+        <v>73.77690727900011</v>
       </c>
       <c r="F34" t="n">
-        <v>73.77690727900006</v>
+        <v>73.77690727900011</v>
       </c>
       <c r="G34" t="n">
-        <v>60.10713413257471</v>
+        <v>60.10713413257474</v>
       </c>
       <c r="H34" t="n">
         <v>54.03718668914269</v>
       </c>
       <c r="I34" t="n">
-        <v>59.47419625854366</v>
+        <v>54.03718668914269</v>
       </c>
       <c r="J34" t="n">
-        <v>135.3526438176334</v>
+        <v>129.9156342482324</v>
       </c>
       <c r="K34" t="n">
-        <v>291.6528887824633</v>
+        <v>239.5456671534195</v>
       </c>
       <c r="L34" t="n">
-        <v>351.7959804279875</v>
+        <v>452.3812700592397</v>
       </c>
       <c r="M34" t="n">
-        <v>425.5975609790075</v>
+        <v>526.1828506102597</v>
       </c>
       <c r="N34" t="n">
-        <v>503.0789213210206</v>
+        <v>603.6642109522728</v>
       </c>
       <c r="O34" t="n">
-        <v>558.6292028039503</v>
+        <v>659.2144924352025</v>
       </c>
       <c r="P34" t="n">
-        <v>735.3338942516823</v>
+        <v>683.2266726226385</v>
       </c>
       <c r="Q34" t="n">
-        <v>755.8228114216104</v>
+        <v>769.108892634069</v>
       </c>
       <c r="R34" t="n">
-        <v>742.6615403057548</v>
+        <v>755.9476215182134</v>
       </c>
       <c r="S34" t="n">
-        <v>676.1012493104657</v>
+        <v>689.3873305229243</v>
       </c>
       <c r="T34" t="n">
-        <v>602.6085997892019</v>
+        <v>615.8946810016605</v>
       </c>
       <c r="U34" t="n">
-        <v>469.2025356915987</v>
+        <v>482.4886169040573</v>
       </c>
       <c r="V34" t="n">
-        <v>370.3108352219592</v>
+        <v>383.5969164344178</v>
       </c>
       <c r="W34" t="n">
-        <v>236.686452921246</v>
+        <v>249.9725341337046</v>
       </c>
       <c r="X34" t="n">
-        <v>164.4896897594761</v>
+        <v>177.7757709719347</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.48989835219339</v>
+        <v>112.7759795646519</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1090.014198100788</v>
+        <v>1090.014198100786</v>
       </c>
       <c r="C35" t="n">
-        <v>926.0622024415841</v>
+        <v>926.0622024415827</v>
       </c>
       <c r="D35" t="n">
-        <v>772.8070251160415</v>
+        <v>772.8070251160402</v>
       </c>
       <c r="E35" t="n">
-        <v>592.0292937990052</v>
+        <v>592.0292937990041</v>
       </c>
       <c r="F35" t="n">
-        <v>386.0539102906057</v>
+        <v>386.0539102906046</v>
       </c>
       <c r="G35" t="n">
         <v>172.0689780472011</v>
@@ -6932,34 +6932,34 @@
         <v>39.31944067817997</v>
       </c>
       <c r="I35" t="n">
-        <v>39.31944067817997</v>
+        <v>50.85721229328443</v>
       </c>
       <c r="J35" t="n">
-        <v>69.27011756040625</v>
+        <v>281.7387010832226</v>
       </c>
       <c r="K35" t="n">
-        <v>234.9032225425004</v>
+        <v>648.3026179730286</v>
       </c>
       <c r="L35" t="n">
-        <v>492.6623630960293</v>
+        <v>906.0617585265576</v>
       </c>
       <c r="M35" t="n">
-        <v>796.0756173041366</v>
+        <v>1209.475012734665</v>
       </c>
       <c r="N35" t="n">
-        <v>1089.766417628309</v>
+        <v>1503.165813058838</v>
       </c>
       <c r="O35" t="n">
-        <v>1321.902674453173</v>
+        <v>1735.302069883701</v>
       </c>
       <c r="P35" t="n">
-        <v>1638.290110947535</v>
+        <v>1895.750611514074</v>
       </c>
       <c r="Q35" t="n">
-        <v>1882.489335814078</v>
+        <v>1939.019024472906</v>
       </c>
       <c r="R35" t="n">
-        <v>1965.972033908998</v>
+        <v>1960.753576214749</v>
       </c>
       <c r="S35" t="n">
         <v>1965.972033908998</v>
@@ -6974,13 +6974,13 @@
         <v>1772.945698547083</v>
       </c>
       <c r="W35" t="n">
-        <v>1625.187564558177</v>
+        <v>1625.187564558176</v>
       </c>
       <c r="X35" t="n">
-        <v>1456.732327578306</v>
+        <v>1456.732327578304</v>
       </c>
       <c r="Y35" t="n">
-        <v>1271.603516883702</v>
+        <v>1271.6035168837</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>998.7619066495062</v>
+        <v>701.1342762939491</v>
       </c>
       <c r="C36" t="n">
-        <v>824.3088773683792</v>
+        <v>526.6812470128222</v>
       </c>
       <c r="D36" t="n">
-        <v>675.3744677071279</v>
+        <v>377.7468373515709</v>
       </c>
       <c r="E36" t="n">
-        <v>516.1370127016723</v>
+        <v>377.7468373515709</v>
       </c>
       <c r="F36" t="n">
-        <v>369.6024547285573</v>
+        <v>231.2122793784559</v>
       </c>
       <c r="G36" t="n">
-        <v>231.1403627111065</v>
+        <v>120.3666260075186</v>
       </c>
       <c r="H36" t="n">
         <v>120.3666260075186</v>
@@ -7017,13 +7017,13 @@
         <v>63.46447896355323</v>
       </c>
       <c r="K36" t="n">
-        <v>231.3530382731819</v>
+        <v>231.3530382731818</v>
       </c>
       <c r="L36" t="n">
-        <v>518.5043212868694</v>
+        <v>518.5043212868693</v>
       </c>
       <c r="M36" t="n">
-        <v>905.5755461531271</v>
+        <v>905.5755461531269</v>
       </c>
       <c r="N36" t="n">
         <v>1318.598407962676</v>
@@ -7038,28 +7038,28 @@
         <v>1965.972033908998</v>
       </c>
       <c r="R36" t="n">
-        <v>1881.487548363027</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="S36" t="n">
-        <v>1881.487548363027</v>
+        <v>1797.546294397908</v>
       </c>
       <c r="T36" t="n">
-        <v>1881.487548363027</v>
+        <v>1797.546294397908</v>
       </c>
       <c r="U36" t="n">
-        <v>1858.292131209567</v>
+        <v>1569.34035596324</v>
       </c>
       <c r="V36" t="n">
-        <v>1828.150544259032</v>
+        <v>1334.188247731498</v>
       </c>
       <c r="W36" t="n">
-        <v>1582.589042640061</v>
+        <v>1079.950891003296</v>
       </c>
       <c r="X36" t="n">
-        <v>1374.737542434528</v>
+        <v>872.0993907977631</v>
       </c>
       <c r="Y36" t="n">
-        <v>1166.977243669574</v>
+        <v>869.3496133140171</v>
       </c>
     </row>
     <row r="37">
@@ -7093,49 +7093,49 @@
         <v>39.31944067817997</v>
       </c>
       <c r="J37" t="n">
-        <v>43.37071990356085</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97845360809456</v>
+        <v>42.92717438271367</v>
       </c>
       <c r="L37" t="n">
-        <v>107.1215452536188</v>
+        <v>103.0702660282379</v>
       </c>
       <c r="M37" t="n">
-        <v>180.9231258046387</v>
+        <v>176.8718465792579</v>
       </c>
       <c r="N37" t="n">
-        <v>258.4044861466518</v>
+        <v>254.353206921271</v>
       </c>
       <c r="O37" t="n">
-        <v>313.9547676295815</v>
+        <v>313.9547676295819</v>
       </c>
       <c r="P37" t="n">
-        <v>337.9669478170175</v>
+        <v>337.9669478170179</v>
       </c>
       <c r="Q37" t="n">
-        <v>337.9669478170175</v>
+        <v>337.9669478170179</v>
       </c>
       <c r="R37" t="n">
-        <v>337.9669478170175</v>
+        <v>337.9669478170179</v>
       </c>
       <c r="S37" t="n">
-        <v>320.624390366689</v>
+        <v>320.6243903666893</v>
       </c>
       <c r="T37" t="n">
-        <v>296.3494743903857</v>
+        <v>296.349474390386</v>
       </c>
       <c r="U37" t="n">
-        <v>212.1611438377431</v>
+        <v>212.1611438377433</v>
       </c>
       <c r="V37" t="n">
-        <v>162.4871769130642</v>
+        <v>162.4871769130643</v>
       </c>
       <c r="W37" t="n">
-        <v>78.08052815731151</v>
+        <v>78.08052815731162</v>
       </c>
       <c r="X37" t="n">
-        <v>55.10149854050212</v>
+        <v>55.10149854050218</v>
       </c>
       <c r="Y37" t="n">
         <v>39.31944067817997</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1090.014198100786</v>
+        <v>1090.014198100788</v>
       </c>
       <c r="C38" t="n">
-        <v>926.0622024415821</v>
+        <v>926.0622024415841</v>
       </c>
       <c r="D38" t="n">
-        <v>772.8070251160398</v>
+        <v>772.8070251160415</v>
       </c>
       <c r="E38" t="n">
-        <v>592.0292937990039</v>
+        <v>592.0292937990052</v>
       </c>
       <c r="F38" t="n">
-        <v>386.0539102906043</v>
+        <v>386.0539102906057</v>
       </c>
       <c r="G38" t="n">
         <v>172.0689780472011</v>
@@ -7169,28 +7169,28 @@
         <v>39.31944067817997</v>
       </c>
       <c r="I38" t="n">
-        <v>50.85721229328449</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="J38" t="n">
-        <v>80.80788917551078</v>
+        <v>270.2009294681181</v>
       </c>
       <c r="K38" t="n">
-        <v>246.4409941576049</v>
+        <v>435.8340344502122</v>
       </c>
       <c r="L38" t="n">
-        <v>504.2001347111338</v>
+        <v>693.5931750037412</v>
       </c>
       <c r="M38" t="n">
-        <v>807.6133889192411</v>
+        <v>997.0064292118485</v>
       </c>
       <c r="N38" t="n">
-        <v>1101.304189243414</v>
+        <v>1290.697229536021</v>
       </c>
       <c r="O38" t="n">
-        <v>1333.440446068277</v>
+        <v>1522.833486360885</v>
       </c>
       <c r="P38" t="n">
-        <v>1633.071653253286</v>
+        <v>1683.282027991258</v>
       </c>
       <c r="Q38" t="n">
         <v>1877.270878119829</v>
@@ -7205,19 +7205,19 @@
         <v>1947.83186032397</v>
       </c>
       <c r="U38" t="n">
-        <v>1898.998064609445</v>
+        <v>1898.998064609446</v>
       </c>
       <c r="V38" t="n">
-        <v>1772.945698547082</v>
+        <v>1772.945698547083</v>
       </c>
       <c r="W38" t="n">
-        <v>1625.187564558176</v>
+        <v>1625.187564558177</v>
       </c>
       <c r="X38" t="n">
-        <v>1456.732327578304</v>
+        <v>1456.732327578306</v>
       </c>
       <c r="Y38" t="n">
-        <v>1271.6035168837</v>
+        <v>1271.603516883702</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>602.9915199553524</v>
+        <v>580.0650089778601</v>
       </c>
       <c r="C39" t="n">
-        <v>428.5384906742254</v>
+        <v>405.6119796967331</v>
       </c>
       <c r="D39" t="n">
-        <v>279.6040810129741</v>
+        <v>256.6775700354818</v>
       </c>
       <c r="E39" t="n">
-        <v>120.3666260075186</v>
+        <v>256.6775700354818</v>
       </c>
       <c r="F39" t="n">
-        <v>120.3666260075186</v>
+        <v>110.1430120623668</v>
       </c>
       <c r="G39" t="n">
-        <v>120.3666260075186</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="H39" t="n">
-        <v>120.3666260075186</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="I39" t="n">
         <v>39.31944067817997</v>
       </c>
       <c r="J39" t="n">
-        <v>63.46447896355322</v>
+        <v>63.46447896355335</v>
       </c>
       <c r="K39" t="n">
-        <v>231.3530382731818</v>
+        <v>231.3530382731819</v>
       </c>
       <c r="L39" t="n">
-        <v>518.5043212868693</v>
+        <v>518.5043212868695</v>
       </c>
       <c r="M39" t="n">
-        <v>905.5755461531269</v>
+        <v>905.5755461531272</v>
       </c>
       <c r="N39" t="n">
         <v>1318.598407962676</v>
@@ -7281,22 +7281,22 @@
         <v>1881.487548363027</v>
       </c>
       <c r="T39" t="n">
-        <v>1699.403538059311</v>
+        <v>1881.487548363027</v>
       </c>
       <c r="U39" t="n">
-        <v>1471.197599624643</v>
+        <v>1653.281609928359</v>
       </c>
       <c r="V39" t="n">
-        <v>1236.045491392901</v>
+        <v>1418.129501696616</v>
       </c>
       <c r="W39" t="n">
-        <v>981.8081346646991</v>
+        <v>1163.892144968415</v>
       </c>
       <c r="X39" t="n">
-        <v>978.9671557403742</v>
+        <v>956.040644762882</v>
       </c>
       <c r="Y39" t="n">
-        <v>771.2068569754204</v>
+        <v>748.2803459979282</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.37071990356085</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="C40" t="n">
-        <v>43.37071990356085</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="D40" t="n">
-        <v>43.37071990356085</v>
+        <v>39.31944067817997</v>
       </c>
       <c r="E40" t="n">
-        <v>43.37071990356085</v>
+        <v>43.37071990356079</v>
       </c>
       <c r="F40" t="n">
-        <v>43.37071990356085</v>
+        <v>43.37071990356079</v>
       </c>
       <c r="G40" t="n">
-        <v>43.37071990356085</v>
+        <v>43.37071990356079</v>
       </c>
       <c r="H40" t="n">
-        <v>43.37071990356085</v>
+        <v>43.37071990356079</v>
       </c>
       <c r="I40" t="n">
-        <v>43.37071990356085</v>
+        <v>43.37071990356079</v>
       </c>
       <c r="J40" t="n">
-        <v>43.37071990356085</v>
+        <v>43.37071990356079</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97845360809456</v>
+        <v>46.9784536080945</v>
       </c>
       <c r="L40" t="n">
-        <v>107.1215452536188</v>
+        <v>107.1215452536187</v>
       </c>
       <c r="M40" t="n">
         <v>180.9231258046387</v>
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1090.014198100788</v>
+        <v>1090.014198100787</v>
       </c>
       <c r="C41" t="n">
-        <v>926.062202441584</v>
+        <v>926.0622024415829</v>
       </c>
       <c r="D41" t="n">
-        <v>772.8070251160414</v>
+        <v>772.8070251160403</v>
       </c>
       <c r="E41" t="n">
-        <v>592.029293799005</v>
+        <v>592.029293799004</v>
       </c>
       <c r="F41" t="n">
-        <v>386.0539102906054</v>
+        <v>386.0539102906043</v>
       </c>
       <c r="G41" t="n">
-        <v>172.0689780472011</v>
+        <v>172.0689780472012</v>
       </c>
       <c r="H41" t="n">
         <v>39.31944067817997</v>
       </c>
       <c r="I41" t="n">
-        <v>50.85721229328446</v>
+        <v>50.85721229328441</v>
       </c>
       <c r="J41" t="n">
-        <v>80.80788917551075</v>
+        <v>80.8078891755107</v>
       </c>
       <c r="K41" t="n">
-        <v>246.4409941576049</v>
+        <v>246.4409941576048</v>
       </c>
       <c r="L41" t="n">
         <v>504.2001347111337</v>
       </c>
       <c r="M41" t="n">
-        <v>946.7960544738762</v>
+        <v>990.7782131036108</v>
       </c>
       <c r="N41" t="n">
-        <v>1240.486854798049</v>
+        <v>1284.469013427783</v>
       </c>
       <c r="O41" t="n">
-        <v>1472.623111622913</v>
+        <v>1556.105809717832</v>
       </c>
       <c r="P41" t="n">
-        <v>1633.071653253286</v>
+        <v>1917.485163255917</v>
       </c>
       <c r="Q41" t="n">
-        <v>1877.270878119829</v>
+        <v>1960.753576214749</v>
       </c>
       <c r="R41" t="n">
         <v>1960.753576214749</v>
@@ -7454,7 +7454,7 @@
         <v>1456.732327578305</v>
       </c>
       <c r="Y41" t="n">
-        <v>1271.603516883702</v>
+        <v>1271.603516883701</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>611.9427083415969</v>
+        <v>768.7803116589163</v>
       </c>
       <c r="C42" t="n">
-        <v>437.4896790604699</v>
+        <v>594.3272823777893</v>
       </c>
       <c r="D42" t="n">
-        <v>288.5552693992187</v>
+        <v>594.3272823777893</v>
       </c>
       <c r="E42" t="n">
-        <v>288.5552693992187</v>
+        <v>435.0898273723337</v>
       </c>
       <c r="F42" t="n">
         <v>288.5552693992187</v>
@@ -7491,13 +7491,13 @@
         <v>63.46447896355323</v>
       </c>
       <c r="K42" t="n">
-        <v>231.3530382731819</v>
+        <v>231.3530382731818</v>
       </c>
       <c r="L42" t="n">
-        <v>518.5043212868694</v>
+        <v>518.5043212868693</v>
       </c>
       <c r="M42" t="n">
-        <v>905.5755461531271</v>
+        <v>905.575546153127</v>
       </c>
       <c r="N42" t="n">
         <v>1318.598407962676</v>
@@ -7512,28 +7512,28 @@
         <v>1965.972033908998</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.487548363027</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="S42" t="n">
-        <v>1713.061808851937</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="T42" t="n">
-        <v>1713.061808851937</v>
+        <v>1764.868623454339</v>
       </c>
       <c r="U42" t="n">
-        <v>1484.855870417269</v>
+        <v>1536.662685019671</v>
       </c>
       <c r="V42" t="n">
-        <v>1450.007201060353</v>
+        <v>1401.834283096465</v>
       </c>
       <c r="W42" t="n">
-        <v>1195.769844332152</v>
+        <v>1352.607447649471</v>
       </c>
       <c r="X42" t="n">
-        <v>987.9183441266189</v>
+        <v>1144.755947443938</v>
       </c>
       <c r="Y42" t="n">
-        <v>780.158045361665</v>
+        <v>936.9956486789843</v>
       </c>
     </row>
     <row r="43">
@@ -7582,34 +7582,34 @@
         <v>254.353206921271</v>
       </c>
       <c r="O43" t="n">
-        <v>309.9034884042006</v>
+        <v>309.9034884042007</v>
       </c>
       <c r="P43" t="n">
-        <v>333.9156685916366</v>
+        <v>333.9156685916367</v>
       </c>
       <c r="Q43" t="n">
-        <v>333.9156685916366</v>
+        <v>337.9669478170182</v>
       </c>
       <c r="R43" t="n">
-        <v>337.9669478170177</v>
+        <v>337.9669478170182</v>
       </c>
       <c r="S43" t="n">
-        <v>320.6243903666892</v>
+        <v>320.6243903666896</v>
       </c>
       <c r="T43" t="n">
-        <v>296.3494743903858</v>
+        <v>296.3494743903861</v>
       </c>
       <c r="U43" t="n">
-        <v>212.1611438377432</v>
+        <v>212.1611438377435</v>
       </c>
       <c r="V43" t="n">
-        <v>162.4871769130643</v>
+        <v>162.4871769130644</v>
       </c>
       <c r="W43" t="n">
-        <v>78.08052815731156</v>
+        <v>78.08052815731168</v>
       </c>
       <c r="X43" t="n">
-        <v>55.10149854050215</v>
+        <v>55.10149854050221</v>
       </c>
       <c r="Y43" t="n">
         <v>39.31944067817997</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1090.014198100786</v>
+        <v>1090.014198100787</v>
       </c>
       <c r="C44" t="n">
-        <v>926.0622024415829</v>
+        <v>926.0622024415828</v>
       </c>
       <c r="D44" t="n">
-        <v>772.8070251160404</v>
+        <v>772.8070251160402</v>
       </c>
       <c r="E44" t="n">
-        <v>592.029293799004</v>
+        <v>592.0292937990041</v>
       </c>
       <c r="F44" t="n">
-        <v>386.0539102906043</v>
+        <v>386.0539102906046</v>
       </c>
       <c r="G44" t="n">
         <v>172.0689780472012</v>
@@ -7658,19 +7658,19 @@
         <v>807.6133889192411</v>
       </c>
       <c r="N44" t="n">
-        <v>1240.486854798049</v>
+        <v>1294.191467311718</v>
       </c>
       <c r="O44" t="n">
-        <v>1472.623111622913</v>
+        <v>1727.258536044294</v>
       </c>
       <c r="P44" t="n">
-        <v>1834.002465160997</v>
+        <v>1887.707077674667</v>
       </c>
       <c r="Q44" t="n">
-        <v>1877.270878119829</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="R44" t="n">
-        <v>1960.753576214749</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="S44" t="n">
         <v>1965.972033908998</v>
@@ -7682,7 +7682,7 @@
         <v>1898.998064609445</v>
       </c>
       <c r="V44" t="n">
-        <v>1772.945698547083</v>
+        <v>1772.945698547082</v>
       </c>
       <c r="W44" t="n">
         <v>1625.187564558176</v>
@@ -7691,7 +7691,7 @@
         <v>1456.732327578304</v>
       </c>
       <c r="Y44" t="n">
-        <v>1271.6035168837</v>
+        <v>1271.603516883701</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>749.5260779284673</v>
+        <v>739.053760284667</v>
       </c>
       <c r="C45" t="n">
-        <v>575.0730486473403</v>
+        <v>564.60073100354</v>
       </c>
       <c r="D45" t="n">
-        <v>426.1386389860891</v>
+        <v>564.60073100354</v>
       </c>
       <c r="E45" t="n">
-        <v>266.9011839806336</v>
+        <v>405.3632759980845</v>
       </c>
       <c r="F45" t="n">
-        <v>120.3666260075186</v>
+        <v>258.8287180249695</v>
       </c>
       <c r="G45" t="n">
         <v>120.3666260075186</v>
@@ -7725,16 +7725,16 @@
         <v>39.31944067817997</v>
       </c>
       <c r="J45" t="n">
-        <v>63.46447896355322</v>
+        <v>63.46447896355323</v>
       </c>
       <c r="K45" t="n">
-        <v>231.3530382731818</v>
+        <v>231.3530382731819</v>
       </c>
       <c r="L45" t="n">
-        <v>518.5043212868693</v>
+        <v>518.5043212868694</v>
       </c>
       <c r="M45" t="n">
-        <v>905.5755461531269</v>
+        <v>905.5755461531271</v>
       </c>
       <c r="N45" t="n">
         <v>1318.598407962676</v>
@@ -7752,25 +7752,25 @@
         <v>1881.487548363027</v>
       </c>
       <c r="S45" t="n">
-        <v>1713.061808851937</v>
+        <v>1881.487548363027</v>
       </c>
       <c r="T45" t="n">
-        <v>1511.958398397278</v>
+        <v>1835.465778388626</v>
       </c>
       <c r="U45" t="n">
-        <v>1283.75245996261</v>
+        <v>1812.270361235166</v>
       </c>
       <c r="V45" t="n">
-        <v>1253.610873012075</v>
+        <v>1577.118253003423</v>
       </c>
       <c r="W45" t="n">
-        <v>1128.342692637814</v>
+        <v>1322.880896275222</v>
       </c>
       <c r="X45" t="n">
-        <v>920.4911924322813</v>
+        <v>1115.029396069689</v>
       </c>
       <c r="Y45" t="n">
-        <v>917.7414149485353</v>
+        <v>907.2690973047349</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>39.31944067817997</v>
+        <v>1667.32452677016</v>
       </c>
       <c r="C46" t="n">
-        <v>39.31944067817997</v>
+        <v>1667.32452677016</v>
       </c>
       <c r="D46" t="n">
-        <v>39.31944067817997</v>
+        <v>1667.32452677016</v>
       </c>
       <c r="E46" t="n">
-        <v>39.31944067817997</v>
+        <v>1667.32452677016</v>
       </c>
       <c r="F46" t="n">
-        <v>39.31944067817997</v>
+        <v>1667.32452677016</v>
       </c>
       <c r="G46" t="n">
-        <v>39.31944067817997</v>
+        <v>1667.32452677016</v>
       </c>
       <c r="H46" t="n">
-        <v>43.37071990356154</v>
+        <v>1667.32452677016</v>
       </c>
       <c r="I46" t="n">
-        <v>43.37071990356154</v>
+        <v>1667.32452677016</v>
       </c>
       <c r="J46" t="n">
-        <v>43.37071990356154</v>
+        <v>1667.32452677016</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97845360809524</v>
+        <v>1670.932260474694</v>
       </c>
       <c r="L46" t="n">
-        <v>107.1215452536195</v>
+        <v>1735.126631345599</v>
       </c>
       <c r="M46" t="n">
-        <v>180.9231258046394</v>
+        <v>1808.928211896619</v>
       </c>
       <c r="N46" t="n">
-        <v>258.4044861466525</v>
+        <v>1886.409572238633</v>
       </c>
       <c r="O46" t="n">
-        <v>313.9547676295822</v>
+        <v>1941.959853721562</v>
       </c>
       <c r="P46" t="n">
-        <v>337.9669478170182</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="Q46" t="n">
-        <v>337.9669478170182</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="R46" t="n">
-        <v>337.9669478170182</v>
+        <v>1965.972033908998</v>
       </c>
       <c r="S46" t="n">
-        <v>320.6243903666896</v>
+        <v>1948.62947645867</v>
       </c>
       <c r="T46" t="n">
-        <v>296.3494743903861</v>
+        <v>1924.354560482366</v>
       </c>
       <c r="U46" t="n">
-        <v>212.1611438377435</v>
+        <v>1840.166229929724</v>
       </c>
       <c r="V46" t="n">
-        <v>162.4871769130644</v>
+        <v>1790.492263005045</v>
       </c>
       <c r="W46" t="n">
-        <v>78.08052815731168</v>
+        <v>1706.085614249292</v>
       </c>
       <c r="X46" t="n">
-        <v>55.10149854050221</v>
+        <v>1683.106584632483</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.31944067817997</v>
+        <v>1667.32452677016</v>
       </c>
     </row>
   </sheetData>
@@ -8459,10 +8459,10 @@
         <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8538,19 +8538,19 @@
         <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>154.6662191763026</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,7 +8614,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M10" t="n">
         <v>154.2285214627401</v>
@@ -8623,7 +8623,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>101.7021077794257</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>94.88083366951939</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>74.72402853155786</v>
+        <v>453.8822398489553</v>
       </c>
       <c r="N12" t="n">
-        <v>441.305775752316</v>
+        <v>441.3057757523161</v>
       </c>
       <c r="O12" t="n">
-        <v>378.0795441302267</v>
+        <v>296.950724309472</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>106.0212271432491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,22 +9006,22 @@
         <v>101.7021077794257</v>
       </c>
       <c r="K15" t="n">
-        <v>94.8808336695194</v>
+        <v>94.88083366951939</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>453.8822398489552</v>
+        <v>453.8822398489553</v>
       </c>
       <c r="N15" t="n">
-        <v>240.3381201924581</v>
+        <v>441.3057757523161</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>117.4951130800797</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,22 +9243,22 @@
         <v>101.7021077794257</v>
       </c>
       <c r="K18" t="n">
-        <v>129.2046692416192</v>
+        <v>94.88083366951939</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>453.8822398489552</v>
+        <v>453.8822398489553</v>
       </c>
       <c r="N18" t="n">
-        <v>441.3057757523159</v>
+        <v>441.3057757523161</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>192.8946637168719</v>
       </c>
       <c r="P18" t="n">
-        <v>83.17127750797974</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>101.7021077794257</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,13 +9486,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>453.8822398489552</v>
+        <v>453.8822398489553</v>
       </c>
       <c r="N21" t="n">
-        <v>441.305775752316</v>
+        <v>150.4208498810162</v>
       </c>
       <c r="O21" t="n">
-        <v>127.366320966413</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>101.7021077794257</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>211.1908499715169</v>
       </c>
       <c r="M24" t="n">
-        <v>453.8822398489555</v>
+        <v>453.8822398489554</v>
       </c>
       <c r="N24" t="n">
-        <v>174.8097774420002</v>
+        <v>441.3057757523162</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>83.17127750797974</v>
       </c>
       <c r="Q24" t="n">
-        <v>106.0212271432491</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>318.4627686399373</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358492</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>465.70506375</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -23258,16 +23258,16 @@
         <v>251.4065958057407</v>
       </c>
       <c r="C11" t="n">
-        <v>233.9456459132676</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>223.355795762943</v>
+        <v>223.3557957629431</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>54.45254438600482</v>
       </c>
       <c r="F11" t="n">
-        <v>275.5487998839715</v>
+        <v>275.5487998839716</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.97885544792413</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.36200082252515</v>
       </c>
       <c r="T11" t="n">
-        <v>36.43969680302084</v>
+        <v>89.59194205983398</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>251.4065958057407</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>111.9059655644263</v>
       </c>
       <c r="D14" t="n">
-        <v>223.355795762943</v>
+        <v>223.3557957629431</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>275.5487998839716</v>
       </c>
       <c r="G14" t="n">
-        <v>269.040142578885</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>203.0552122059869</v>
       </c>
       <c r="I14" t="n">
-        <v>59.9788554479241</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.36200082252518</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>119.9786279680351</v>
       </c>
       <c r="V14" t="n">
-        <v>196.425012612395</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>238.4038548207291</v>
+        <v>238.4038548207292</v>
       </c>
       <c r="Y14" t="n">
         <v>254.9106927983137</v>
@@ -26326,13 +26326,13 @@
         <v>193093.3131209665</v>
       </c>
       <c r="G2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="H2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="I2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="J2" t="n">
         <v>225786.4867126778</v>
@@ -26341,16 +26341,16 @@
         <v>225786.4867126778</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126779</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126778</v>
+        <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
         <v>225786.4867126779</v>
@@ -26375,10 +26375,10 @@
         <v>313072.4135187424</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>85172.54343310981</v>
+        <v>85172.54343310979</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>116578.764392722</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>88339.84283304242</v>
+        <v>88339.84283304238</v>
       </c>
       <c r="M3" t="n">
-        <v>83808.16974957829</v>
+        <v>83808.16974957832</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>35048.04505406553</v>
+        <v>35048.04505406551</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>259604.3742888316</v>
+        <v>259604.3742888315</v>
       </c>
       <c r="F4" t="n">
         <v>259604.3742888315</v>
       </c>
       <c r="G4" t="n">
-        <v>327221.8566612479</v>
+        <v>327221.8566612478</v>
       </c>
       <c r="H4" t="n">
         <v>327221.8566612479</v>
       </c>
       <c r="I4" t="n">
-        <v>327221.8566612479</v>
+        <v>327221.8566612478</v>
       </c>
       <c r="J4" t="n">
         <v>323295.2197743148</v>
@@ -26448,13 +26448,13 @@
         <v>323218.2430703347</v>
       </c>
       <c r="M4" t="n">
-        <v>322342.8513983454</v>
+        <v>322342.8513983453</v>
       </c>
       <c r="N4" t="n">
         <v>322342.8513983454</v>
       </c>
       <c r="O4" t="n">
-        <v>322342.8513983454</v>
+        <v>322342.8513983453</v>
       </c>
       <c r="P4" t="n">
         <v>322342.8513983453</v>
@@ -26488,7 +26488,7 @@
         <v>45740.23288807814</v>
       </c>
       <c r="I5" t="n">
-        <v>45740.23288807816</v>
+        <v>45740.23288807815</v>
       </c>
       <c r="J5" t="n">
         <v>57328.5993571975</v>
@@ -26509,7 +26509,7 @@
         <v>49641.85434948916</v>
       </c>
       <c r="P5" t="n">
-        <v>49641.85434948915</v>
+        <v>49641.85434948916</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-212348.2649126287</v>
+        <v>-212352.6784904968</v>
       </c>
       <c r="C6" t="n">
-        <v>-212348.2649126286</v>
+        <v>-212352.6784904968</v>
       </c>
       <c r="D6" t="n">
         <v>-216051.5563953493</v>
       </c>
       <c r="E6" t="n">
-        <v>-416373.244382338</v>
+        <v>-416670.4550513534</v>
       </c>
       <c r="F6" t="n">
-        <v>-103300.8308635956</v>
+        <v>-103598.0415326111</v>
       </c>
       <c r="G6" t="n">
         <v>-232348.1462697576</v>
@@ -26540,25 +26540,25 @@
         <v>-147175.6028366479</v>
       </c>
       <c r="I6" t="n">
-        <v>-147175.6028366479</v>
+        <v>-147175.6028366478</v>
       </c>
       <c r="J6" t="n">
-        <v>-271416.0968115565</v>
+        <v>-271416.0968115566</v>
       </c>
       <c r="K6" t="n">
         <v>-154837.3324188345</v>
       </c>
       <c r="L6" t="n">
-        <v>-242502.6317235428</v>
+        <v>-242502.6317235426</v>
       </c>
       <c r="M6" t="n">
-        <v>-230006.388784735</v>
+        <v>-230006.3887847349</v>
       </c>
       <c r="N6" t="n">
         <v>-146198.2190351568</v>
       </c>
       <c r="O6" t="n">
-        <v>-181246.2640892222</v>
+        <v>-181246.264089222</v>
       </c>
       <c r="P6" t="n">
         <v>-146198.2190351565</v>
@@ -26698,7 +26698,7 @@
         <v>131.3272458577399</v>
       </c>
       <c r="G2" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="H2" t="n">
         <v>237.7929251491271</v>
@@ -26716,7 +26716,7 @@
         <v>154.2348598588849</v>
       </c>
       <c r="M2" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="N2" t="n">
         <v>202.9604160683959</v>
@@ -26796,19 +26796,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>379.1582113173973</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="F4" t="n">
-        <v>379.1582113173973</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="G4" t="n">
-        <v>379.1582113173973</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="H4" t="n">
         <v>379.1582113173974</v>
       </c>
       <c r="I4" t="n">
-        <v>379.1582113173976</v>
+        <v>379.1582113173975</v>
       </c>
       <c r="J4" t="n">
         <v>690.7675711294186</v>
@@ -26917,10 +26917,10 @@
         <v>131.3272458577399</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>106.4656792913873</v>
+        <v>106.4656792913872</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.81005631758194</v>
+        <v>43.81005631758197</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>110.424803541303</v>
@@ -26941,10 +26941,10 @@
         <v>48.7255562095109</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>43.81005631758191</v>
+        <v>43.81005631758188</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>363.8554738022623</v>
+        <v>363.8554738022624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>311.609359812021</v>
+        <v>311.6093598120211</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>179.8836486652284</v>
+        <v>179.8836486652285</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>131.3272458577399</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>106.4656792913873</v>
+        <v>106.4656792913872</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>43.81005631758194</v>
+        <v>43.81005631758197</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>363.8554738022623</v>
+        <v>363.8554738022624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.03464559240276976</v>
       </c>
       <c r="R8" t="n">
-        <v>134.6010260184174</v>
+        <v>134.5663804260146</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27980,10 +27980,10 @@
         <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>187.4326688177485</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>192.9506359002313</v>
       </c>
     </row>
     <row r="10">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.0747697137129</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>151.9440835834928</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>133.3127355030773</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>131.1312251314341</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>78.05644260153773</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>275.5618188882664</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28114,7 +28114,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.6344583967598</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S11" t="n">
         <v>131.3272458577399</v>
@@ -28172,22 +28172,22 @@
         <v>131.3272458577399</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="E12" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="G12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>109.665999336552</v>
       </c>
       <c r="I12" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,22 +28220,22 @@
         <v>131.3272458577399</v>
       </c>
       <c r="T12" t="n">
-        <v>23.45959347168795</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>103.6963069477328</v>
       </c>
       <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>131.3272458577399</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28269,7 +28269,7 @@
         <v>131.3272458577399</v>
       </c>
       <c r="J13" t="n">
-        <v>77.58996333455183</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="K13" t="n">
         <v>131.3272458577399</v>
@@ -28281,13 +28281,13 @@
         <v>131.3272458577399</v>
       </c>
       <c r="N13" t="n">
-        <v>49.91909893674553</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="O13" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>131.3272458577399</v>
+        <v>127.5090622712978</v>
       </c>
       <c r="Q13" t="n">
         <v>131.3272458577399</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.6344583967598</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S14" t="n">
         <v>131.3272458577399</v>
@@ -28409,22 +28409,22 @@
         <v>131.3272458577399</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>131.3272458577399</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>131.3272458577399</v>
       </c>
       <c r="H15" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>83.63964069051124</v>
       </c>
       <c r="S15" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>131.3272458577399</v>
@@ -28466,13 +28466,13 @@
         <v>131.3272458577399</v>
       </c>
       <c r="W15" t="n">
-        <v>23.45959347168801</v>
+        <v>82.0350604265451</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>131.3272458577399</v>
       </c>
     </row>
     <row r="16">
@@ -28506,10 +28506,10 @@
         <v>131.3272458577399</v>
       </c>
       <c r="J16" t="n">
-        <v>127.5090622712973</v>
+        <v>131.3272458577399</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>127.5090622712983</v>
       </c>
       <c r="L16" t="n">
         <v>131.3272458577399</v>
@@ -28521,7 +28521,7 @@
         <v>131.3272458577399</v>
       </c>
       <c r="O16" t="n">
-        <v>131.3272458577399</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>131.3272458577399</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="C17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="D17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="E17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="F17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="G17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="H17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="I17" t="n">
         <v>191.306101305664</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.6344583967598</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S17" t="n">
         <v>197.689246680265</v>
@@ -28618,19 +28618,19 @@
         <v>220.9191879175739</v>
       </c>
       <c r="U17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="V17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="W17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="X17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="Y17" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
     </row>
     <row r="18">
@@ -28649,13 +28649,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.665999336552</v>
@@ -28694,16 +28694,16 @@
         <v>166.7414821159791</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>79.491441011014</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9238790503212</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>103.4164812644017</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.767935273846</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>67.48514267562186</v>
+        <v>32.84465459278071</v>
       </c>
       <c r="R19" t="n">
         <v>167.2645182635819</v>
@@ -28776,13 +28776,13 @@
         <v>226.9925828849361</v>
       </c>
       <c r="U19" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="V19" t="n">
-        <v>237.7929251491272</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="W19" t="n">
-        <v>57.7313890433546</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.6344583967598</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S20" t="n">
         <v>197.689246680265</v>
@@ -28883,19 +28883,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>66.08456788941814</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>80.23671347604525</v>
@@ -28925,19 +28925,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>166.7414821159791</v>
       </c>
       <c r="T21" t="n">
-        <v>199.0923763501127</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9238790503212</v>
       </c>
       <c r="V21" t="n">
-        <v>47.38192221231026</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -28946,7 +28946,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>67.48514267562186</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R22" t="n">
         <v>167.2645182635819</v>
@@ -29010,7 +29010,7 @@
         <v>220.1295479442211</v>
       </c>
       <c r="T22" t="n">
-        <v>46.93104677916361</v>
+        <v>226.9925828849361</v>
       </c>
       <c r="U22" t="n">
         <v>237.7929251491271</v>
@@ -29025,7 +29025,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>38.52311724632241</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.6344583967609</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S23" t="n">
         <v>197.689246680265</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0774710972763</v>
+        <v>8.55910901392636</v>
       </c>
       <c r="H24" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.23671347604525</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.8129457419374</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29174,10 +29174,10 @@
         <v>225.9238790503212</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>237.7929251491271</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -29208,10 +29208,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.767935273846</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>47.66771439773201</v>
+        <v>160.2441078278826</v>
       </c>
       <c r="I25" t="n">
         <v>148.7429310009042</v>
@@ -29238,7 +29238,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>55.19154184369543</v>
       </c>
       <c r="R25" t="n">
         <v>167.2645182635819</v>
@@ -29360,13 +29360,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>7.742919639825175</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>55.97422683100515</v>
+        <v>137.0774710972763</v>
       </c>
       <c r="H27" t="n">
         <v>109.665999336552</v>
@@ -29399,10 +29399,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>83.63964069051124</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>150.2757356089692</v>
@@ -29454,16 +29454,16 @@
         <v>150.2757356089692</v>
       </c>
       <c r="J28" t="n">
-        <v>150.2757356089692</v>
+        <v>77.58996333455183</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>77.96523929229622</v>
       </c>
       <c r="M28" t="n">
-        <v>5.279467017878929</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29588,16 +29588,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>136.2109403070502</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>150.2757356089692</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29642,16 +29642,16 @@
         <v>150.2757356089692</v>
       </c>
       <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>150.2757356089692</v>
-      </c>
-      <c r="U30" t="n">
-        <v>136.2109403070502</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -29691,28 +29691,28 @@
         <v>148.7429310009042</v>
       </c>
       <c r="J31" t="n">
-        <v>77.58996333455183</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>150.2757356089692</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>17.16899476513862</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
         <v>150.2757356089692</v>
-      </c>
-      <c r="N31" t="n">
-        <v>150.2757356089692</v>
-      </c>
-      <c r="O31" t="n">
-        <v>150.2757356089692</v>
-      </c>
-      <c r="P31" t="n">
-        <v>22.36962436393417</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>67.48514267562186</v>
       </c>
       <c r="R31" t="n">
         <v>150.2757356089692</v>
@@ -29770,13 +29770,13 @@
         <v>154.2348598588849</v>
       </c>
       <c r="J32" t="n">
-        <v>154.2348598588849</v>
+        <v>58.01008397395691</v>
       </c>
       <c r="K32" t="n">
         <v>154.2348598588849</v>
       </c>
       <c r="L32" t="n">
-        <v>58.01008397395668</v>
+        <v>154.2348598588849</v>
       </c>
       <c r="M32" t="n">
         <v>154.2348598588849</v>
@@ -29825,13 +29825,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>6.317787853170927</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -29840,10 +29840,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.665999336552</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>80.23671347604525</v>
@@ -29876,19 +29876,19 @@
         <v>83.63964069051124</v>
       </c>
       <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>154.2348598588849</v>
       </c>
-      <c r="T33" t="n">
+      <c r="V33" t="n">
         <v>154.2348598588849</v>
       </c>
-      <c r="U33" t="n">
-        <v>61.25424284286623</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>154.2348598588849</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29910,10 +29910,10 @@
         <v>154.2348598588849</v>
       </c>
       <c r="D34" t="n">
-        <v>154.2348598588849</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>154.2348598588849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -29925,17 +29925,17 @@
         <v>154.2348598588849</v>
       </c>
       <c r="I34" t="n">
-        <v>154.2348598588849</v>
+        <v>148.7429310009042</v>
       </c>
       <c r="J34" t="n">
         <v>154.2348598588849</v>
       </c>
       <c r="K34" t="n">
+        <v>107.0932315158114</v>
+      </c>
+      <c r="L34" t="n">
         <v>154.2348598588849</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
@@ -29946,10 +29946,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
         <v>154.2348598588849</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>88.18101860484214</v>
       </c>
       <c r="R34" t="n">
         <v>154.2348598588849</v>
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="C35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="D35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="E35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="F35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="G35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="H35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="I35" t="n">
-        <v>191.306101305664</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30025,34 +30025,34 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>157.5140352161506</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.9604160683959</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>202.9604160683959</v>
+        <v>140.5885510652878</v>
       </c>
       <c r="S35" t="n">
-        <v>197.689246680265</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="T35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="U35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="V35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="W35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="X35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="Y35" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
     </row>
     <row r="36">
@@ -30071,16 +30071,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>27.34027426004846</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.665999336552</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,28 +30110,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S36" t="n">
-        <v>166.7414821159791</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>199.0923763501127</v>
       </c>
       <c r="U36" t="n">
-        <v>202.9604160683959</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>202.9604160683959</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>8.589096558137811</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
     </row>
     <row r="37">
@@ -30165,7 +30165,7 @@
         <v>148.7429310009042</v>
       </c>
       <c r="J37" t="n">
-        <v>81.6821645723103</v>
+        <v>77.58996333455183</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30180,37 +30180,37 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>4.092201237758793</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>67.48514267562186</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R37" t="n">
         <v>167.2645182635819</v>
       </c>
       <c r="S37" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="T37" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="U37" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="V37" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="W37" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="X37" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="Y37" t="n">
-        <v>202.9604160683959</v>
+        <v>202.9604160683958</v>
       </c>
     </row>
     <row r="38">
@@ -30241,11 +30241,11 @@
         <v>202.9604160683959</v>
       </c>
       <c r="I38" t="n">
+        <v>191.306101305664</v>
+      </c>
+      <c r="J38" t="n">
         <v>202.9604160683959</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -30262,10 +30262,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>140.588551065288</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.9604160683959</v>
+        <v>152.2428658280195</v>
       </c>
       <c r="R38" t="n">
         <v>202.9604160683959</v>
@@ -30308,19 +30308,19 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0774710972763</v>
+        <v>66.96213542693135</v>
       </c>
       <c r="H39" t="n">
         <v>109.665999336552</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.23671347604525</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30353,7 +30353,7 @@
         <v>166.7414821159791</v>
       </c>
       <c r="T39" t="n">
-        <v>18.8292061494341</v>
+        <v>199.0923763501127</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>202.9604160683959</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.9241814196958</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -30387,7 +30387,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>150.5261638843276</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.48514267562186</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R40" t="n">
         <v>167.2645182635819</v>
@@ -30490,22 +30490,22 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>140.588551065288</v>
+        <v>185.0149739236057</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>39.89953481331821</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>202.9604160683958</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S41" t="n">
         <v>202.9604160683958</v>
@@ -30542,13 +30542,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -30584,22 +30584,22 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>83.63964069051124</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0923763501127</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>198.3004044860785</v>
+        <v>99.32046924545133</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30660,10 +30660,10 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>67.48514267562186</v>
+        <v>71.57734391338094</v>
       </c>
       <c r="R43" t="n">
-        <v>171.3567195013406</v>
+        <v>167.2645182635819</v>
       </c>
       <c r="S43" t="n">
         <v>202.9604160683958</v>
@@ -30730,22 +30730,22 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>140.5885510652881</v>
+        <v>194.8356344124286</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="P44" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>35.35004371262622</v>
       </c>
       <c r="R44" t="n">
-        <v>202.9604160683958</v>
+        <v>118.6344583967597</v>
       </c>
       <c r="S44" t="n">
-        <v>202.9604160683958</v>
+        <v>197.689246680265</v>
       </c>
       <c r="T44" t="n">
         <v>202.9604160683958</v>
@@ -30779,7 +30779,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0774710972763</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>109.665999336552</v>
@@ -30824,25 +30824,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>166.7414821159791</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>153.5308240754555</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>202.9604160683958</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>127.6794845904015</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>202.9604160683958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30870,7 +30870,7 @@
         <v>167.767935273846</v>
       </c>
       <c r="H46" t="n">
-        <v>164.3363090656418</v>
+        <v>160.2441078278826</v>
       </c>
       <c r="I46" t="n">
         <v>148.7429310009042</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>4.092201237758822</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>67.48514267562186</v>
+        <v>67.48514267562184</v>
       </c>
       <c r="R46" t="n">
         <v>167.2645182635819</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H11" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I11" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J11" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K11" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L11" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M11" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N11" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O11" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P11" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R11" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S11" t="n">
         <v>11.33082290598031</v>
@@ -31792,7 +31792,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H12" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I12" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J12" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K12" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L12" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M12" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N12" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O12" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P12" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R12" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S12" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T12" t="n">
         <v>1.0723523447089</v>
@@ -31911,10 +31911,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H13" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I13" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J13" t="n">
         <v>15.76921678212095</v>
@@ -31923,10 +31923,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L13" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M13" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N13" t="n">
         <v>34.13182796623919</v>
@@ -31935,19 +31935,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P13" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R13" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S13" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U13" t="n">
         <v>0.01216604097887692</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H14" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I14" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J14" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K14" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L14" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M14" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N14" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O14" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P14" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R14" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S14" t="n">
         <v>11.33082290598031</v>
@@ -32029,7 +32029,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H15" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I15" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J15" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K15" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L15" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M15" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N15" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O15" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P15" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R15" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S15" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T15" t="n">
         <v>1.0723523447089</v>
@@ -32148,10 +32148,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H16" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I16" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J16" t="n">
         <v>15.76921678212095</v>
@@ -32160,10 +32160,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L16" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M16" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N16" t="n">
         <v>34.13182796623919</v>
@@ -32172,19 +32172,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P16" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R16" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S16" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U16" t="n">
         <v>0.01216604097887692</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H17" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I17" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J17" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K17" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L17" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M17" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N17" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O17" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P17" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R17" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S17" t="n">
         <v>11.33082290598031</v>
@@ -32266,7 +32266,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H18" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I18" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J18" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K18" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L18" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M18" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N18" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O18" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P18" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R18" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S18" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T18" t="n">
         <v>1.0723523447089</v>
@@ -32385,10 +32385,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H19" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I19" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J19" t="n">
         <v>15.76921678212095</v>
@@ -32397,10 +32397,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L19" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M19" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N19" t="n">
         <v>34.13182796623919</v>
@@ -32409,19 +32409,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P19" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R19" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S19" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U19" t="n">
         <v>0.01216604097887692</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H20" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I20" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J20" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K20" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L20" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M20" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N20" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O20" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P20" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R20" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S20" t="n">
         <v>11.33082290598031</v>
@@ -32503,7 +32503,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H21" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I21" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J21" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K21" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L21" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M21" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N21" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O21" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P21" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R21" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S21" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T21" t="n">
         <v>1.0723523447089</v>
@@ -32622,10 +32622,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H22" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I22" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J22" t="n">
         <v>15.76921678212095</v>
@@ -32634,10 +32634,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L22" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M22" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N22" t="n">
         <v>34.13182796623919</v>
@@ -32646,19 +32646,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P22" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R22" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S22" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U22" t="n">
         <v>0.01216604097887692</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H23" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I23" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J23" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K23" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L23" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M23" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N23" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O23" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P23" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R23" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S23" t="n">
         <v>11.33082290598031</v>
@@ -32740,7 +32740,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H24" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I24" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J24" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K24" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L24" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M24" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N24" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O24" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P24" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R24" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S24" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T24" t="n">
         <v>1.0723523447089</v>
@@ -32859,10 +32859,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H25" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I25" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J25" t="n">
         <v>15.76921678212095</v>
@@ -32871,10 +32871,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L25" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M25" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N25" t="n">
         <v>34.13182796623919</v>
@@ -32883,19 +32883,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P25" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R25" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S25" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U25" t="n">
         <v>0.01216604097887692</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H26" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I26" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J26" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K26" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L26" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M26" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N26" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O26" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P26" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R26" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S26" t="n">
         <v>11.33082290598031</v>
@@ -32977,7 +32977,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H27" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I27" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J27" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K27" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L27" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M27" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N27" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O27" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P27" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R27" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S27" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T27" t="n">
         <v>1.0723523447089</v>
@@ -33096,10 +33096,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H28" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I28" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J28" t="n">
         <v>15.76921678212095</v>
@@ -33108,10 +33108,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L28" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M28" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N28" t="n">
         <v>34.13182796623919</v>
@@ -33120,19 +33120,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P28" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R28" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S28" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U28" t="n">
         <v>0.01216604097887692</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H29" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I29" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J29" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K29" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L29" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M29" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N29" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O29" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P29" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R29" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S29" t="n">
         <v>11.33082290598031</v>
@@ -33214,7 +33214,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H30" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I30" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J30" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K30" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L30" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M30" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N30" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O30" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P30" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R30" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S30" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T30" t="n">
         <v>1.0723523447089</v>
@@ -33333,10 +33333,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H31" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I31" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J31" t="n">
         <v>15.76921678212095</v>
@@ -33345,10 +33345,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L31" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M31" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N31" t="n">
         <v>34.13182796623919</v>
@@ -33357,19 +33357,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P31" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R31" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S31" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U31" t="n">
         <v>0.01216604097887692</v>
@@ -33409,40 +33409,40 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H32" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I32" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J32" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K32" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L32" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M32" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N32" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O32" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P32" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R32" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S32" t="n">
         <v>11.33082290598031</v>
@@ -33451,7 +33451,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H33" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I33" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J33" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K33" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L33" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M33" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N33" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O33" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P33" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R33" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S33" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T33" t="n">
         <v>1.0723523447089</v>
@@ -33570,10 +33570,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H34" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I34" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J34" t="n">
         <v>15.76921678212095</v>
@@ -33582,10 +33582,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L34" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M34" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N34" t="n">
         <v>34.13182796623919</v>
@@ -33594,19 +33594,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P34" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R34" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S34" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U34" t="n">
         <v>0.01216604097887692</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H35" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I35" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J35" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K35" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L35" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M35" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N35" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O35" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P35" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R35" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S35" t="n">
         <v>11.33082290598031</v>
@@ -33688,7 +33688,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H36" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I36" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J36" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K36" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L36" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M36" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N36" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O36" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P36" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q36" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R36" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S36" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T36" t="n">
         <v>1.0723523447089</v>
@@ -33807,10 +33807,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H37" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I37" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J37" t="n">
         <v>15.76921678212095</v>
@@ -33819,10 +33819,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L37" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M37" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N37" t="n">
         <v>34.13182796623919</v>
@@ -33831,19 +33831,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P37" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R37" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S37" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U37" t="n">
         <v>0.01216604097887692</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H38" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I38" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J38" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K38" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L38" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M38" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N38" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O38" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P38" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R38" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S38" t="n">
         <v>11.33082290598031</v>
@@ -33925,7 +33925,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H39" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I39" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J39" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K39" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L39" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M39" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N39" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O39" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P39" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R39" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S39" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T39" t="n">
         <v>1.0723523447089</v>
@@ -34044,10 +34044,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H40" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I40" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J40" t="n">
         <v>15.76921678212095</v>
@@ -34056,10 +34056,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L40" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M40" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N40" t="n">
         <v>34.13182796623919</v>
@@ -34068,19 +34068,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P40" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R40" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S40" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U40" t="n">
         <v>0.01216604097887692</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H41" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I41" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J41" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K41" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L41" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M41" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N41" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O41" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P41" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R41" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S41" t="n">
         <v>11.33082290598031</v>
@@ -34162,7 +34162,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H42" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I42" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J42" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K42" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L42" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M42" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N42" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O42" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P42" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R42" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S42" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T42" t="n">
         <v>1.0723523447089</v>
@@ -34281,10 +34281,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H43" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I43" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J43" t="n">
         <v>15.76921678212095</v>
@@ -34293,10 +34293,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L43" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M43" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N43" t="n">
         <v>34.13182796623919</v>
@@ -34305,19 +34305,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P43" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R43" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S43" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U43" t="n">
         <v>0.01216604097887692</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4972385257698431</v>
+        <v>0.4972385257698432</v>
       </c>
       <c r="H44" t="n">
-        <v>5.092344052040407</v>
+        <v>5.092344052040408</v>
       </c>
       <c r="I44" t="n">
         <v>19.1697882647419</v>
       </c>
       <c r="J44" t="n">
-        <v>42.20249832655826</v>
+        <v>42.20249832655827</v>
       </c>
       <c r="K44" t="n">
-        <v>63.25060512239573</v>
+        <v>63.25060512239575</v>
       </c>
       <c r="L44" t="n">
-        <v>78.46796865542458</v>
+        <v>78.4679686554246</v>
       </c>
       <c r="M44" t="n">
-        <v>87.31073428808402</v>
+        <v>87.31073428808405</v>
       </c>
       <c r="N44" t="n">
-        <v>88.7235132494276</v>
+        <v>88.72351324942763</v>
       </c>
       <c r="O44" t="n">
-        <v>83.77909765880372</v>
+        <v>83.77909765880374</v>
       </c>
       <c r="P44" t="n">
-        <v>71.50352155386071</v>
+        <v>71.50352155386072</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.69616684972818</v>
+        <v>53.69616684972819</v>
       </c>
       <c r="R44" t="n">
-        <v>31.23465954438993</v>
+        <v>31.23465954438994</v>
       </c>
       <c r="S44" t="n">
         <v>11.33082290598031</v>
@@ -34399,7 +34399,7 @@
         <v>2.17666164655749</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03977908206158744</v>
+        <v>0.03977908206158745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2660460659343082</v>
+        <v>0.2660460659343083</v>
       </c>
       <c r="H45" t="n">
         <v>2.569444899944504</v>
       </c>
       <c r="I45" t="n">
-        <v>9.159919375369824</v>
+        <v>9.159919375369826</v>
       </c>
       <c r="J45" t="n">
-        <v>25.13551888724094</v>
+        <v>25.13551888724095</v>
       </c>
       <c r="K45" t="n">
         <v>42.9606053048396</v>
       </c>
       <c r="L45" t="n">
-        <v>57.7658355003418</v>
+        <v>57.76583550034182</v>
       </c>
       <c r="M45" t="n">
-        <v>67.41000539046046</v>
+        <v>67.41000539046047</v>
       </c>
       <c r="N45" t="n">
-        <v>69.19414764841467</v>
+        <v>69.19414764841468</v>
       </c>
       <c r="O45" t="n">
-        <v>63.29912692429131</v>
+        <v>63.29912692429133</v>
       </c>
       <c r="P45" t="n">
-        <v>50.8031299063505</v>
+        <v>50.80312990635051</v>
       </c>
       <c r="Q45" t="n">
-        <v>33.9605469427724</v>
+        <v>33.96054694277241</v>
       </c>
       <c r="R45" t="n">
-        <v>16.51819346213188</v>
+        <v>16.51819346213189</v>
       </c>
       <c r="S45" t="n">
-        <v>4.941688987858749</v>
+        <v>4.94168898785875</v>
       </c>
       <c r="T45" t="n">
         <v>1.0723523447089</v>
@@ -34518,10 +34518,10 @@
         <v>0.2230440846127433</v>
       </c>
       <c r="H46" t="n">
-        <v>1.983064679556937</v>
+        <v>1.983064679556938</v>
       </c>
       <c r="I46" t="n">
-        <v>6.707543926354137</v>
+        <v>6.707543926354139</v>
       </c>
       <c r="J46" t="n">
         <v>15.76921678212095</v>
@@ -34530,10 +34530,10 @@
         <v>25.91366728500781</v>
       </c>
       <c r="L46" t="n">
-        <v>33.16057236142549</v>
+        <v>33.1605723614255</v>
       </c>
       <c r="M46" t="n">
-        <v>34.96317409979574</v>
+        <v>34.96317409979576</v>
       </c>
       <c r="N46" t="n">
         <v>34.13182796623919</v>
@@ -34542,19 +34542,19 @@
         <v>31.52626752326304</v>
       </c>
       <c r="P46" t="n">
-        <v>26.97616819716305</v>
+        <v>26.97616819716306</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.67690057607253</v>
+        <v>18.67690057607254</v>
       </c>
       <c r="R46" t="n">
         <v>10.02887311358753</v>
       </c>
       <c r="S46" t="n">
-        <v>3.88705009275117</v>
+        <v>3.887050092751171</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9530065433453575</v>
+        <v>0.9530065433453577</v>
       </c>
       <c r="U46" t="n">
         <v>0.01216604097887692</v>
@@ -35179,10 +35179,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N8" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M10" t="n">
         <v>15.30273751513505</v>
@@ -35343,7 +35343,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>30.25320897194575</v>
       </c>
       <c r="K11" t="n">
-        <v>167.3061666485799</v>
+        <v>167.3061666485803</v>
       </c>
       <c r="L11" t="n">
         <v>260.3627682358878</v>
@@ -35419,16 +35419,16 @@
         <v>306.4780345536438</v>
       </c>
       <c r="N11" t="n">
-        <v>296.6573740648208</v>
+        <v>296.6573740648209</v>
       </c>
       <c r="O11" t="n">
-        <v>234.4810674998623</v>
+        <v>234.4810674998624</v>
       </c>
       <c r="P11" t="n">
         <v>162.0692339700738</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.70546763518337</v>
+        <v>43.70546763518339</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>24.38892756098308</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>169.5844033430592</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>290.0518010239268</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="N12" t="n">
-        <v>379.1582113173973</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="O12" t="n">
-        <v>298.7824266100736</v>
+        <v>217.6536067893188</v>
       </c>
       <c r="P12" t="n">
         <v>235.2914911319574</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.0560605926</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>53.73728252318806</v>
       </c>
       <c r="K13" t="n">
-        <v>134.9714213168649</v>
+        <v>134.9714213168648</v>
       </c>
       <c r="L13" t="n">
         <v>192.0778434794815</v>
@@ -35577,16 +35577,16 @@
         <v>205.8742969193762</v>
       </c>
       <c r="N13" t="n">
-        <v>128.1830992822133</v>
+        <v>209.5912462032077</v>
       </c>
       <c r="O13" t="n">
-        <v>187.4386412950426</v>
+        <v>56.11139543730272</v>
       </c>
       <c r="P13" t="n">
-        <v>155.5819733197964</v>
+        <v>151.7637897333543</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.84210318211806</v>
+        <v>63.84210318211804</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>306.4780345536438</v>
       </c>
       <c r="N14" t="n">
-        <v>296.6573740648208</v>
+        <v>296.6573740648209</v>
       </c>
       <c r="O14" t="n">
-        <v>234.4810674998623</v>
+        <v>234.4810674998624</v>
       </c>
       <c r="P14" t="n">
         <v>162.0692339700738</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.70546763518337</v>
+        <v>43.70546763518339</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>290.0518010239268</v>
       </c>
       <c r="M15" t="n">
-        <v>379.1582113173973</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="N15" t="n">
-        <v>178.1905557575395</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="O15" t="n">
         <v>314.5652017565764</v>
       </c>
       <c r="P15" t="n">
-        <v>235.2914911319574</v>
+        <v>34.32383557210001</v>
       </c>
       <c r="Q15" t="n">
         <v>104.0560605926</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.91909893674551</v>
+        <v>53.73728252318803</v>
       </c>
       <c r="K16" t="n">
-        <v>3.644175459124956</v>
+        <v>131.1532377304232</v>
       </c>
       <c r="L16" t="n">
         <v>192.0778434794815</v>
@@ -35814,16 +35814,16 @@
         <v>205.8742969193762</v>
       </c>
       <c r="N16" t="n">
-        <v>209.5912462032077</v>
+        <v>209.5912462032076</v>
       </c>
       <c r="O16" t="n">
-        <v>187.4386412950426</v>
+        <v>56.11139543730272</v>
       </c>
       <c r="P16" t="n">
         <v>155.5819733197964</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.84210318211806</v>
+        <v>63.84210318211801</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,16 +35893,16 @@
         <v>306.4780345536438</v>
       </c>
       <c r="N17" t="n">
-        <v>296.6573740648208</v>
+        <v>296.6573740648209</v>
       </c>
       <c r="O17" t="n">
-        <v>234.4810674998623</v>
+        <v>234.4810674998624</v>
       </c>
       <c r="P17" t="n">
         <v>162.0692339700738</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.70546763518337</v>
+        <v>43.70546763518339</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.32383557209984</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>290.0518010239268</v>
       </c>
       <c r="M18" t="n">
-        <v>379.1582113173973</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="N18" t="n">
-        <v>379.1582113173973</v>
+        <v>379.1582113173974</v>
       </c>
       <c r="O18" t="n">
-        <v>314.5652017565764</v>
+        <v>113.5975461967188</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>235.2914911319574</v>
       </c>
       <c r="Q18" t="n">
         <v>104.0560605926</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.644175459124956</v>
+        <v>3.644175459124959</v>
       </c>
       <c r="L19" t="n">
-        <v>60.75059762174163</v>
+        <v>60.75059762174164</v>
       </c>
       <c r="M19" t="n">
-        <v>74.54705106163632</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N19" t="n">
-        <v>78.26400034546778</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O19" t="n">
-        <v>56.11139543730271</v>
+        <v>56.11139543730272</v>
       </c>
       <c r="P19" t="n">
-        <v>24.25472746205654</v>
+        <v>24.25472746205655</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36130,16 +36130,16 @@
         <v>306.4780345536438</v>
       </c>
       <c r="N20" t="n">
-        <v>296.6573740648208</v>
+        <v>296.6573740648209</v>
       </c>
       <c r="O20" t="n">
-        <v>234.4810674998623</v>
+        <v>234.4810674998624</v>
       </c>
       <c r="P20" t="n">
         <v>162.0692339700738</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.70546763518337</v>
+        <v>43.70546763518339</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K21" t="n">
         <v>169.5844033430592</v>
@@ -36209,10 +36209,10 @@
         <v>379.1582113173974</v>
       </c>
       <c r="N21" t="n">
-        <v>379.1582113173974</v>
+        <v>88.27328544609759</v>
       </c>
       <c r="O21" t="n">
-        <v>48.0692034462599</v>
+        <v>314.5652017565764</v>
       </c>
       <c r="P21" t="n">
         <v>235.2914911319574</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.644175459124956</v>
+        <v>3.644175459124959</v>
       </c>
       <c r="L22" t="n">
-        <v>60.75059762174163</v>
+        <v>60.75059762174164</v>
       </c>
       <c r="M22" t="n">
-        <v>74.54705106163632</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N22" t="n">
-        <v>78.26400034546778</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O22" t="n">
-        <v>56.11139543730271</v>
+        <v>56.11139543730272</v>
       </c>
       <c r="P22" t="n">
-        <v>24.25472746205654</v>
+        <v>24.25472746205655</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36367,16 +36367,16 @@
         <v>306.4780345536438</v>
       </c>
       <c r="N23" t="n">
-        <v>296.6573740648208</v>
+        <v>296.6573740648209</v>
       </c>
       <c r="O23" t="n">
-        <v>234.4810674998623</v>
+        <v>234.4810674998624</v>
       </c>
       <c r="P23" t="n">
         <v>162.0692339700738</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.70546763518337</v>
+        <v>43.70546763518339</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K24" t="n">
         <v>169.5844033430592</v>
       </c>
       <c r="L24" t="n">
-        <v>290.0518010239268</v>
+        <v>130.4023056919846</v>
       </c>
       <c r="M24" t="n">
-        <v>379.1582113173976</v>
+        <v>379.1582113173975</v>
       </c>
       <c r="N24" t="n">
-        <v>112.6622130070815</v>
+        <v>379.1582113173975</v>
       </c>
       <c r="O24" t="n">
         <v>314.5652017565764</v>
       </c>
       <c r="P24" t="n">
-        <v>235.2914911319574</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>104.0560605926</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>3.644175459124956</v>
+        <v>3.644175459124959</v>
       </c>
       <c r="L25" t="n">
-        <v>60.75059762174163</v>
+        <v>60.75059762174164</v>
       </c>
       <c r="M25" t="n">
-        <v>74.54705106163632</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N25" t="n">
-        <v>78.26400034546778</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O25" t="n">
-        <v>56.11139543730271</v>
+        <v>56.11139543730272</v>
       </c>
       <c r="P25" t="n">
-        <v>24.25472746205654</v>
+        <v>24.25472746205655</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,13 +36598,13 @@
         <v>317.5819022575491</v>
       </c>
       <c r="L26" t="n">
-        <v>410.6385038448569</v>
+        <v>410.638503844857</v>
       </c>
       <c r="M26" t="n">
         <v>456.753770162613</v>
       </c>
       <c r="N26" t="n">
-        <v>446.93310967379</v>
+        <v>446.9331096737901</v>
       </c>
       <c r="O26" t="n">
         <v>384.7568031088315</v>
@@ -36613,10 +36613,10 @@
         <v>312.344969579043</v>
       </c>
       <c r="Q26" t="n">
-        <v>193.9812032441525</v>
+        <v>193.9812032441526</v>
       </c>
       <c r="R26" t="n">
-        <v>31.64127721220942</v>
+        <v>31.64127721220943</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>24.38892756098308</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K27" t="n">
         <v>169.5844033430592</v>
@@ -36747,22 +36747,22 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.532804608065024</v>
+        <v>1.532804608065025</v>
       </c>
       <c r="J28" t="n">
-        <v>72.68577227441735</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>3.644175459124956</v>
+        <v>3.644175459124959</v>
       </c>
       <c r="L28" t="n">
-        <v>60.75059762174163</v>
+        <v>138.7158369140379</v>
       </c>
       <c r="M28" t="n">
-        <v>79.82651807951525</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N28" t="n">
-        <v>78.26400034546778</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O28" t="n">
         <v>206.3871310462719</v>
@@ -36771,7 +36771,7 @@
         <v>174.5304630710257</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.79059293334731</v>
+        <v>82.79059293334733</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>317.5819022575491</v>
       </c>
       <c r="L29" t="n">
-        <v>410.6385038448569</v>
+        <v>410.638503844857</v>
       </c>
       <c r="M29" t="n">
         <v>456.753770162613</v>
       </c>
       <c r="N29" t="n">
-        <v>446.93310967379</v>
+        <v>446.9331096737901</v>
       </c>
       <c r="O29" t="n">
         <v>384.7568031088315</v>
@@ -36850,10 +36850,10 @@
         <v>312.344969579043</v>
       </c>
       <c r="Q29" t="n">
-        <v>193.9812032441525</v>
+        <v>193.9812032441526</v>
       </c>
       <c r="R29" t="n">
-        <v>31.64127721220942</v>
+        <v>31.64127721220943</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>24.38892756098308</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K30" t="n">
         <v>169.5844033430592</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.68577227441735</v>
       </c>
       <c r="K31" t="n">
-        <v>3.644175459124956</v>
+        <v>153.9199110680941</v>
       </c>
       <c r="L31" t="n">
-        <v>60.75059762174163</v>
+        <v>211.0263332307108</v>
       </c>
       <c r="M31" t="n">
-        <v>224.8227866706055</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N31" t="n">
-        <v>228.5397359544369</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O31" t="n">
-        <v>206.3871310462719</v>
+        <v>73.28039020244134</v>
       </c>
       <c r="P31" t="n">
-        <v>46.62435182599071</v>
+        <v>24.25472746205655</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>82.79059293334733</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>184.4880688308307</v>
+        <v>88.26329294590266</v>
       </c>
       <c r="K32" t="n">
         <v>321.5410265074648</v>
       </c>
       <c r="L32" t="n">
-        <v>318.3728522098444</v>
+        <v>414.5976280947727</v>
       </c>
       <c r="M32" t="n">
         <v>460.7128944125287</v>
@@ -37090,7 +37090,7 @@
         <v>197.9403274940683</v>
       </c>
       <c r="R32" t="n">
-        <v>35.60040146212518</v>
+        <v>35.60040146212516</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>24.38892756098308</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K33" t="n">
         <v>169.5844033430592</v>
@@ -37206,10 +37206,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>5.619386840672576</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>7.80089721231576</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>5.491928857980784</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.64489652433311</v>
+        <v>76.64489652433308</v>
       </c>
       <c r="K34" t="n">
-        <v>157.8790353180099</v>
+        <v>110.7374069749364</v>
       </c>
       <c r="L34" t="n">
-        <v>60.75059762174163</v>
+        <v>214.9854574806265</v>
       </c>
       <c r="M34" t="n">
-        <v>74.54705106163632</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N34" t="n">
-        <v>78.26400034546778</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O34" t="n">
-        <v>56.11139543730271</v>
+        <v>56.11139543730272</v>
       </c>
       <c r="P34" t="n">
-        <v>178.4895873209415</v>
+        <v>24.25472746205655</v>
       </c>
       <c r="Q34" t="n">
-        <v>20.69587592922027</v>
+        <v>86.74971718326306</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>11.65431476273179</v>
       </c>
       <c r="J35" t="n">
-        <v>30.25320897194575</v>
+        <v>233.2136250403416</v>
       </c>
       <c r="K35" t="n">
-        <v>167.3061666485799</v>
+        <v>370.2665827169758</v>
       </c>
       <c r="L35" t="n">
         <v>260.3627682358878</v>
@@ -37315,22 +37315,22 @@
         <v>306.4780345536438</v>
       </c>
       <c r="N35" t="n">
-        <v>296.6573740648208</v>
+        <v>296.6573740648209</v>
       </c>
       <c r="O35" t="n">
-        <v>234.4810674998623</v>
+        <v>234.4810674998624</v>
       </c>
       <c r="P35" t="n">
-        <v>319.5832691862244</v>
+        <v>162.0692339700738</v>
       </c>
       <c r="Q35" t="n">
-        <v>246.6658837035792</v>
+        <v>43.70546763518339</v>
       </c>
       <c r="R35" t="n">
-        <v>84.3259576716361</v>
+        <v>21.95409266852806</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>5.271169388130774</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>24.38892756098308</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K36" t="n">
         <v>169.5844033430592</v>
@@ -37400,7 +37400,7 @@
         <v>314.5652017565764</v>
       </c>
       <c r="P36" t="n">
-        <v>235.2914911319574</v>
+        <v>235.2914911319575</v>
       </c>
       <c r="Q36" t="n">
         <v>104.0560605926</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.092201237758473</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>3.644175459124956</v>
+        <v>3.644175459124959</v>
       </c>
       <c r="L37" t="n">
-        <v>60.75059762174163</v>
+        <v>60.75059762174164</v>
       </c>
       <c r="M37" t="n">
-        <v>74.54705106163632</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N37" t="n">
-        <v>78.26400034546778</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O37" t="n">
-        <v>56.11139543730271</v>
+        <v>60.20359667506151</v>
       </c>
       <c r="P37" t="n">
-        <v>24.25472746205654</v>
+        <v>24.25472746205655</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>11.65431476273184</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>30.25320897194575</v>
+        <v>233.2136250403416</v>
       </c>
       <c r="K38" t="n">
         <v>167.3061666485799</v>
@@ -37552,22 +37552,22 @@
         <v>306.4780345536438</v>
       </c>
       <c r="N38" t="n">
-        <v>296.6573740648208</v>
+        <v>296.6573740648209</v>
       </c>
       <c r="O38" t="n">
-        <v>234.4810674998623</v>
+        <v>234.4810674998624</v>
       </c>
       <c r="P38" t="n">
-        <v>302.6577850353618</v>
+        <v>162.0692339700738</v>
       </c>
       <c r="Q38" t="n">
-        <v>246.6658837035792</v>
+        <v>195.9483334632029</v>
       </c>
       <c r="R38" t="n">
-        <v>84.3259576716361</v>
+        <v>84.32595767163612</v>
       </c>
       <c r="S38" t="n">
-        <v>5.271169388130827</v>
+        <v>5.271169388130831</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>24.38892756098308</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K39" t="n">
         <v>169.5844033430592</v>
@@ -37640,7 +37640,7 @@
         <v>235.2914911319574</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.0560605926001</v>
+        <v>104.0560605926</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.092201237758473</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.092201237758409</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>3.644175459124956</v>
+        <v>3.644175459124959</v>
       </c>
       <c r="L40" t="n">
-        <v>60.75059762174163</v>
+        <v>60.75059762174164</v>
       </c>
       <c r="M40" t="n">
-        <v>74.54705106163632</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N40" t="n">
-        <v>78.26400034546778</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O40" t="n">
-        <v>56.11139543730271</v>
+        <v>56.11139543730272</v>
       </c>
       <c r="P40" t="n">
-        <v>24.25472746205654</v>
+        <v>24.25472746205655</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11.65431476273181</v>
+        <v>11.65431476273176</v>
       </c>
       <c r="J41" t="n">
         <v>30.25320897194575</v>
@@ -37786,25 +37786,25 @@
         <v>260.3627682358878</v>
       </c>
       <c r="M41" t="n">
-        <v>447.0665856189318</v>
+        <v>491.4930084772495</v>
       </c>
       <c r="N41" t="n">
-        <v>296.6573740648208</v>
+        <v>296.6573740648209</v>
       </c>
       <c r="O41" t="n">
-        <v>234.4810674998623</v>
+        <v>274.3806023131806</v>
       </c>
       <c r="P41" t="n">
-        <v>162.0692339700738</v>
+        <v>365.0296500384696</v>
       </c>
       <c r="Q41" t="n">
-        <v>246.6658837035792</v>
+        <v>43.70546763518339</v>
       </c>
       <c r="R41" t="n">
-        <v>84.32595767163608</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.271169388130799</v>
+        <v>5.271169388130746</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>24.38892756098308</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K42" t="n">
         <v>169.5844033430592</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>3.644175459124956</v>
+        <v>3.644175459124959</v>
       </c>
       <c r="L43" t="n">
-        <v>60.75059762174163</v>
+        <v>60.75059762174164</v>
       </c>
       <c r="M43" t="n">
-        <v>74.54705106163632</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N43" t="n">
-        <v>78.26400034546778</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O43" t="n">
-        <v>56.11139543730271</v>
+        <v>56.11139543730272</v>
       </c>
       <c r="P43" t="n">
-        <v>24.25472746205654</v>
+        <v>24.25472746205655</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.092201237759097</v>
       </c>
       <c r="R43" t="n">
-        <v>4.092201237758696</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,22 +38026,22 @@
         <v>306.4780345536438</v>
       </c>
       <c r="N44" t="n">
-        <v>437.2459251301089</v>
+        <v>491.4930084772495</v>
       </c>
       <c r="O44" t="n">
-        <v>234.4810674998623</v>
+        <v>437.4414835682581</v>
       </c>
       <c r="P44" t="n">
-        <v>365.0296500384696</v>
+        <v>162.0692339700738</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.70546763518337</v>
+        <v>79.05551134780961</v>
       </c>
       <c r="R44" t="n">
-        <v>84.32595767163602</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.271169388130742</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>24.38892756098308</v>
+        <v>24.38892756098309</v>
       </c>
       <c r="K45" t="n">
         <v>169.5844033430592</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>4.092201237759162</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>3.644175459124956</v>
+        <v>3.644175459124959</v>
       </c>
       <c r="L46" t="n">
-        <v>60.75059762174163</v>
+        <v>64.84279885950046</v>
       </c>
       <c r="M46" t="n">
-        <v>74.54705106163632</v>
+        <v>74.54705106163635</v>
       </c>
       <c r="N46" t="n">
-        <v>78.26400034546778</v>
+        <v>78.26400034546779</v>
       </c>
       <c r="O46" t="n">
-        <v>56.11139543730271</v>
+        <v>56.11139543730272</v>
       </c>
       <c r="P46" t="n">
-        <v>24.25472746205654</v>
+        <v>24.25472746205655</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
